--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/102TotoxBrokenData.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/102TotoxBrokenData.xlsx
@@ -6,16 +6,16 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="GamesBrokenImgWeb" r:id="rId6" sheetId="4"/>
-    <sheet name="CopyGames" r:id="rId7" sheetId="5"/>
-    <sheet name="ProvidersBrokenImgWeb" r:id="rId8" sheetId="6"/>
-    <sheet name="GamesBrokenURL" r:id="rId9" sheetId="7"/>
+    <sheet name="CopyGames" r:id="rId7" sheetId="8"/>
+    <sheet name="ProvidersBrokenImgWeb" r:id="rId8" sheetId="9"/>
+    <sheet name="GamesBrokenImgWeb" r:id="rId6" sheetId="10"/>
+    <sheet name="GamesBrokenURL" r:id="rId9" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="1891">
   <si>
     <t>Gods of Giza</t>
   </si>
@@ -1920,6 +1920,3774 @@
   </si>
   <si>
     <t>987 ID=23111 Provider=NetEnt Name=Zombies cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>Space Wars</t>
+  </si>
+  <si>
+    <t>Wild Turkey</t>
+  </si>
+  <si>
+    <t>Fruit Case</t>
+  </si>
+  <si>
+    <t>Go Bananas</t>
+  </si>
+  <si>
+    <t>13  Provider ID = 1131   Provider Name = CQGaming :   cod = 200:   src = https://totox-stage.com/assets/images/providers/1131.png</t>
+  </si>
+  <si>
+    <t>142  Game ID = 24418  Game Provider Name = Booongo   Game Name =  15 Dragon Pearls  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24418.png</t>
+  </si>
+  <si>
+    <t>143  Game ID = 24488  Game Provider Name = Microgaming   Game Name =  24488  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24488.png</t>
+  </si>
+  <si>
+    <t>144  Game ID = 24516  Game Provider Name = NetEnt   Game Name =  24516  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24516.png</t>
+  </si>
+  <si>
+    <t>152  Game ID = 24474  Game Provider Name = Microgaming   Game Name =  5 Reel Drive  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24474.png</t>
+  </si>
+  <si>
+    <t>154  Game ID = 24419  Game Provider Name = Booongo   Game Name =  777 Gems Respin  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24419.png</t>
+  </si>
+  <si>
+    <t>155  Game ID = 24420  Game Provider Name = Booongo   Game Name =  88 Wild Dragon  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24420,png</t>
+  </si>
+  <si>
+    <t>160  Game ID = 24421  Game Provider Name = Booongo   Game Name =  African spirit  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24421.png</t>
+  </si>
+  <si>
+    <t>161  Game ID = 24422  Game Provider Name = Booongo   Game Name =  Age of Caesar  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24422.png</t>
+  </si>
+  <si>
+    <t>180  Game ID = 24499  Game Provider Name = NetEnt   Game Name =  arcane  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24499.png</t>
+  </si>
+  <si>
+    <t>207  Game ID = 24500  Game Provider Name = NetEnt   Game Name =  Bee Hive Bonanza  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24500.png</t>
+  </si>
+  <si>
+    <t>232  Game ID = 24423  Game Provider Name = Booongo   Game Name =  Black Wolf  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24423.png</t>
+  </si>
+  <si>
+    <t>245  Game ID = 24568  Game Provider Name = PlayTech   Game Name =  Bonanza Gold  cod = 404   src = https://resources.totox-stage.com/products/playtech/web/24568.png</t>
+  </si>
+  <si>
+    <t>247  Game ID = 24424  Game Provider Name = Booongo   Game Name =  Book of Sun  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24424.png</t>
+  </si>
+  <si>
+    <t>248  Game ID = 24425  Game Provider Name = Booongo   Game Name =  Book of Sun: Multichance  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24425.png</t>
+  </si>
+  <si>
+    <t>251  Game ID = 24475  Game Provider Name = Microgaming   Game Name =  Break Da Bank  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24475.png</t>
+  </si>
+  <si>
+    <t>254  Game ID = 24426  Game Provider Name = Booongo   Game Name =  Buddha Fortune  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24426.png</t>
+  </si>
+  <si>
+    <t>267  Game ID = 24476  Game Provider Name = Microgaming   Game Name =  Bush Telegraph  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24476.png</t>
+  </si>
+  <si>
+    <t>268  Game ID = 24477  Game Provider Name = Microgaming   Game Name =  Bust the Bank  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24477.png</t>
+  </si>
+  <si>
+    <t>270  Game ID = 24505  Game Provider Name = NetEnt   Game Name =  Butterfly Staxx 2  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24505.png</t>
+  </si>
+  <si>
+    <t>271  Game ID = 24427  Game Provider Name = Booongo   Game Name =  Caishen Wealth  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24427.png</t>
+  </si>
+  <si>
+    <t>277  Game ID = 24478  Game Provider Name = Microgaming   Game Name =  Carnaval  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24478.png</t>
+  </si>
+  <si>
+    <t>281  Game ID = 24506  Game Provider Name = NetEnt   Game Name =  Cash Noire  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24506.png</t>
+  </si>
+  <si>
+    <t>284  Game ID = 24507  Game Provider Name = NetEnt   Game Name =  Cash-o-matic  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24507.png</t>
+  </si>
+  <si>
+    <t>285  Game ID = 24479  Game Provider Name = Microgaming   Game Name =  Cashville  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24479.png</t>
+  </si>
+  <si>
+    <t>296  Game ID = 24428  Game Provider Name = Booongo   Game Name =  Christmas Charm  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24428.png</t>
+  </si>
+  <si>
+    <t>302  Game ID = 24509  Game Provider Name = NetEnt   Game Name =  Coins of Egypt  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24509.png</t>
+  </si>
+  <si>
+    <t>323  Game ID = 24510  Game Provider Name = NetEnt   Game Name =  Dark King: Forbidden Riches  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24510.png</t>
+  </si>
+  <si>
+    <t>326  Game ID = 24511  Game Provider Name = NetEnt   Game Name =  Dead or Alive 2 Feature Buy  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24511.png</t>
+  </si>
+  <si>
+    <t>352  Game ID = 24468  Game Provider Name = IGT   Game Name =  Double Diamond  cod = 404   src = https://resources.totox-stage.com/products/igt/web/24468.png</t>
+  </si>
+  <si>
+    <t>361  Game ID = 24429  Game Provider Name = Booongo   Game Name =  Dragon Pearls  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24429.png</t>
+  </si>
+  <si>
+    <t>373  Game ID = 24512  Game Provider Name = NetEnt   Game Name =  Druids' Dream  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24512.png</t>
+  </si>
+  <si>
+    <t>382  Game ID = 24513  Game Provider Name = NetEnt   Game Name =  Emojiplanet  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24513.png</t>
+  </si>
+  <si>
+    <t>395  Game ID = 24514  Game Provider Name = NetEnt   Game Name =  Fairytale Legends: Hansel and Gretel  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24514.png</t>
+  </si>
+  <si>
+    <t>396  Game ID = 24515  Game Provider Name = NetEnt   Game Name =  Fairytale Legends: Mirror Mirror  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24515.png</t>
+  </si>
+  <si>
+    <t>402  Game ID = 24517  Game Provider Name = NetEnt   Game Name =  Finn's Golden Tavern  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24517.png</t>
+  </si>
+  <si>
+    <t>411  Game ID = 24480  Game Provider Name = Microgaming   Game Name =  Fish Party  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24480.png</t>
+  </si>
+  <si>
+    <t>427  Game ID = 24430  Game Provider Name = Booongo   Game Name =  Fortune Multiplier  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24430.png</t>
+  </si>
+  <si>
+    <t>428  Game ID = 24518  Game Provider Name = NetEnt   Game Name =  Fortune rangers  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24518.png</t>
+  </si>
+  <si>
+    <t>433  Game ID = 24481  Game Provider Name = Microgaming   Game Name =  Fortunium  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24481.png</t>
+  </si>
+  <si>
+    <t>438  Game ID = 24520  Game Provider Name = NetEnt   Game Name =  Fruit Case  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24520.png</t>
+  </si>
+  <si>
+    <t>457  Game ID = 24431  Game Provider Name = Booongo   Game Name =  Fruity Wild  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24431.png</t>
+  </si>
+  <si>
+    <t>459  Game ID = 24432  Game Provider Name = Booongo   Game Name =  Fu Cai Shen  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24432.png</t>
+  </si>
+  <si>
+    <t>466  Game ID = 24569  Game Provider Name = PlayTech   Game Name =  Gates of GatotKaca  cod = 404   src = https://resources.totox-stage.com/products/playtech/web/24569.png</t>
+  </si>
+  <si>
+    <t>478  Game ID = 24521  Game Provider Name = NetEnt   Game Name =  Go Bananas  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24521.png</t>
+  </si>
+  <si>
+    <t>481  Game ID = 24522  Game Provider Name = NetEnt   Game Name =  Gods of Gold INFINIREELS  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24522.png</t>
+  </si>
+  <si>
+    <t>497  Game ID = 24523  Game Provider Name = NetEnt   Game Name =  Gonzo's Gold  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24523.png</t>
+  </si>
+  <si>
+    <t>500  Game ID = 24524  Game Provider Name = NetEnt   Game Name =  Gordon Ramsay Hell's Kitchen  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24524.png</t>
+  </si>
+  <si>
+    <t>505  Game ID = 24525  Game Provider Name = NetEnt   Game Name =  Grand Spinn  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24525.png</t>
+  </si>
+  <si>
+    <t>517  Game ID = 24482  Game Provider Name = Microgaming   Game Name =  Halloweenies  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24482.png</t>
+  </si>
+  <si>
+    <t>530  Game ID = 24433  Game Provider Name = Booongo   Game Name =  Hit More Gold!  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24433.png</t>
+  </si>
+  <si>
+    <t>558  Game ID = 24526  Game Provider Name = NetEnt   Game Name =  Hotline 2  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24526.png</t>
+  </si>
+  <si>
+    <t>612  Game ID = 24528  Game Provider Name = NetEnt   Game Name =  Jumanji  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24528.png</t>
+  </si>
+  <si>
+    <t>628  Game ID = 24529  Game Provider Name = NetEnt   Game Name =  King of 3 Kingdoms  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24529.png</t>
+  </si>
+  <si>
+    <t>638  Game ID = 24483  Game Provider Name = Microgaming   Game Name =  Ladies Nite  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24483.png</t>
+  </si>
+  <si>
+    <t>649  Game ID = 24530  Game Provider Name = NetEnt   Game Name =  Long Pao  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24530.png</t>
+  </si>
+  <si>
+    <t>650  Game ID = 24434  Game Provider Name = Booongo   Game Name =  Lord Fortune 2  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24434.png</t>
+  </si>
+  <si>
+    <t>653  Game ID = 24531  Game Provider Name = NetEnt   Game Name =  Lost Relics  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24531.png</t>
+  </si>
+  <si>
+    <t>655  Game ID = 24435  Game Provider Name = Booongo   Game Name =  Lotus Charm  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24435.png</t>
+  </si>
+  <si>
+    <t>667  Game ID = 24484  Game Provider Name = Microgaming   Game Name =  Lucky Firecracker  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24484.png</t>
+  </si>
+  <si>
+    <t>677  Game ID = 24485  Game Provider Name = Microgaming   Game Name =  Lucky Leprechaun  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24485.png</t>
+  </si>
+  <si>
+    <t>684  Game ID = 24436  Game Provider Name = Booongo   Game Name =  Lucky Xmas  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24436.png</t>
+  </si>
+  <si>
+    <t>690  Game ID = 24437  Game Provider Name = Booongo   Game Name =  Magic Apple  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24437.png</t>
+  </si>
+  <si>
+    <t>691  Game ID = 24438  Game Provider Name = Booongo   Game Name =  Magic Ball Multichance  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24438.png</t>
+  </si>
+  <si>
+    <t>738  Game ID = 24439  Game Provider Name = Booongo   Game Name =  Monkey Money  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24439.png</t>
+  </si>
+  <si>
+    <t>747  Game ID = 24486  Game Provider Name = Microgaming   Game Name =  Munchkins  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24486.png</t>
+  </si>
+  <si>
+    <t>758  Game ID = 24532  Game Provider Name = NetEnt   Game Name =  Narcos  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24532.png</t>
+  </si>
+  <si>
+    <t>770  Game ID = 24533  Game Provider Name = NetEnt   Game Name =  Ocean's Treasure  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24533.png</t>
+  </si>
+  <si>
+    <t>774  Game ID = 24440  Game Provider Name = Booongo   Game Name =  Olympian Gods  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24440.png</t>
+  </si>
+  <si>
+    <t>778  Game ID = 24534  Game Provider Name = NetEnt   Game Name =  Ozzy Osbourne  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24534.png</t>
+  </si>
+  <si>
+    <t>783  Game ID = 24459  Game Provider Name = CQGaming   Game Name =  Paradise  cod = 404   src = https://resources.totox-stage.com/products/cqgaming/web/24459.png</t>
+  </si>
+  <si>
+    <t>784  Game ID = 24487  Game Provider Name = Microgaming   Game Name =  Party Island  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24487.png</t>
+  </si>
+  <si>
+    <t>787  Game ID = 24441  Game Provider Name = Booongo   Game Name =  Patrick's Pub  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24441.png</t>
+  </si>
+  <si>
+    <t>790  Game ID = 24535  Game Provider Name = NetEnt   Game Name =  Phantom of the Opera  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24535.png</t>
+  </si>
+  <si>
+    <t>802  Game ID = 24536  Game Provider Name = NetEnt   Game Name =  Pirate From The East  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24536.png</t>
+  </si>
+  <si>
+    <t>825  Game ID = 24537  Game Provider Name = NetEnt   Game Name =  Rage of the Seas  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24537.png</t>
+  </si>
+  <si>
+    <t>839  Game ID = 24538  Game Provider Name = NetEnt   Game Name =  Reef Raider  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24538.png</t>
+  </si>
+  <si>
+    <t>841  Game ID = 24539  Game Provider Name = NetEnt   Game Name =  Reel Rush 2  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24539.png</t>
+  </si>
+  <si>
+    <t>844  Game ID = 24489  Game Provider Name = Microgaming   Game Name =  Reel Thunder  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24489.png</t>
+  </si>
+  <si>
+    <t>852  Game ID = 24540  Game Provider Name = NetEnt   Game Name =  Rise of Maya  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24540.png</t>
+  </si>
+  <si>
+    <t>859  Game ID = 24541  Game Provider Name = NetEnt   Game Name =  Robin Hood: Shifting Riches  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24541.png</t>
+  </si>
+  <si>
+    <t>873  Game ID = 24543  Game Provider Name = NetEnt   Game Name =  Santa vs Rudolf  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24543.png</t>
+  </si>
+  <si>
+    <t>876  Game ID = 24442  Game Provider Name = Booongo   Game Name =  Scarab Riches  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24442.png</t>
+  </si>
+  <si>
+    <t>877  Game ID = 24443  Game Provider Name = Booongo   Game Name =  Scarab Temple  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24443.png</t>
+  </si>
+  <si>
+    <t>886  Game ID = 24444  Game Provider Name = Booongo   Game Name =  Secret of Nefertiti 2  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24444.png</t>
+  </si>
+  <si>
+    <t>888  Game ID = 24544  Game Provider Name = NetEnt   Game Name =  Secret of the Stones  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24544.png</t>
+  </si>
+  <si>
+    <t>895  Game ID = 24545  Game Provider Name = NetEnt   Game Name =  Serengeti Kings  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24545.png</t>
+  </si>
+  <si>
+    <t>900  Game ID = 24445  Game Provider Name = Booongo   Game Name =  Shen Long Mi Bao  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24445.png</t>
+  </si>
+  <si>
+    <t>907  Game ID = 24546  Game Provider Name = NetEnt   Game Name =  Silverback Gold  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24546.png</t>
+  </si>
+  <si>
+    <t>910  Game ID = 24446  Game Provider Name = Booongo   Game Name =  Singles Day  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24446.png</t>
+  </si>
+  <si>
+    <t>919  Game ID = 24447  Game Provider Name = Booongo   Game Name =  Sky Gems: 5 Wilds  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24447.png</t>
+  </si>
+  <si>
+    <t>928  Game ID = 24547  Game Provider Name = NetEnt   Game Name =  Space Wars  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24547.png</t>
+  </si>
+  <si>
+    <t>929  Game ID = 24548  Game Provider Name = NetEnt   Game Name =  Space Wars 2  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24548.png</t>
+  </si>
+  <si>
+    <t>933  Game ID = 24470  Game Provider Name = IGT   Game Name =  Sphinx  cod = 404   src = https://resources.totox-stage.com/products/igt/web/24470.png</t>
+  </si>
+  <si>
+    <t>934  Game ID = 24471  Game Provider Name = IGT   Game Name =  Sphinx Wild  cod = 404   src = https://resources.totox-stage.com/products/igt/web/24471.png</t>
+  </si>
+  <si>
+    <t>939  Game ID = 24549  Game Provider Name = NetEnt   Game Name =  Spinsane  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24549.png</t>
+  </si>
+  <si>
+    <t>940  Game ID = 24490  Game Provider Name = Microgaming   Game Name =  Spring Break  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24490.png</t>
+  </si>
+  <si>
+    <t>943  Game ID = 24448  Game Provider Name = Booongo   Game Name =  Star Gems  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24448.png</t>
+  </si>
+  <si>
+    <t>947  Game ID = 24550  Game Provider Name = NetEnt   Game Name =  Starburst XXXtreme  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24550.png</t>
+  </si>
+  <si>
+    <t>956  Game ID = 24551  Game Provider Name = NetEnt   Game Name =  Street Fighter II: The World Warrior Slot  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24551.png</t>
+  </si>
+  <si>
+    <t>964  Game ID = 24497  Game Provider Name = Microgaming   Game Name =  Summertime  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24497.png</t>
+  </si>
+  <si>
+    <t>966  Game ID = 24449  Game Provider Name = Booongo   Game Name =  Sun of Egypt  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24449.png</t>
+  </si>
+  <si>
+    <t>967  Game ID = 24450  Game Provider Name = Booongo   Game Name =  Sun of Egypt 2  cod = 404   src = https://resources.totox-stage.com/products/booongo/mob/24450.png</t>
+  </si>
+  <si>
+    <t>968  Game ID = 24451  Game Provider Name = Booongo   Game Name =  Sun of Egypt 3  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24451.png</t>
+  </si>
+  <si>
+    <t>971  Game ID = 24492  Game Provider Name = Microgaming   Game Name =  Supe It Up  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24492.png</t>
+  </si>
+  <si>
+    <t>976  Game ID = 24452  Game Provider Name = Booongo   Game Name =  Super Rich God  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24452.png</t>
+  </si>
+  <si>
+    <t>977  Game ID = 24453  Game Provider Name = Booongo   Game Name =  Supreme Fortune  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24453.png</t>
+  </si>
+  <si>
+    <t>979  Game ID = 24493  Game Provider Name = Microgaming   Game Name =  Sure Win  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24493.png</t>
+  </si>
+  <si>
+    <t>983  Game ID = 24552  Game Provider Name = NetEnt   Game Name =  Sweety Honey Fruity  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24552.png</t>
+  </si>
+  <si>
+    <t>989  Game ID = 24494  Game Provider Name = Microgaming   Game Name =  Tally Ho  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24494.png</t>
+  </si>
+  <si>
+    <t>995  Game ID = 24553  Game Provider Name = NetEnt   Game Name =  The Creature from the Black Lagoon  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24553.png</t>
+  </si>
+  <si>
+    <t>1004  Game ID = 24495  Game Provider Name = Microgaming   Game Name =  The Rat Pack  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24495.png</t>
+  </si>
+  <si>
+    <t>1009  Game ID = 24554  Game Provider Name = NetEnt   Game Name =  The Wish Master  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24554.png</t>
+  </si>
+  <si>
+    <t>1010  Game ID = 24555  Game Provider Name = NetEnt   Game Name =  the Wolf's Bane  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24555.png</t>
+  </si>
+  <si>
+    <t>1017  Game ID = 24454  Game Provider Name = Booongo   Game Name =  Thunder of Olympus  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24454.png</t>
+  </si>
+  <si>
+    <t>1028  Game ID = 24472  Game Provider Name = IGT   Game Name =  Treasures of The Pyramids  cod = 404   src = https://resources.totox-stage.com/products/igt/web/24472.png</t>
+  </si>
+  <si>
+    <t>1030  Game ID = 24473  Game Provider Name = IGT   Game Name =  Triple Diamond  cod = 404   src = https://resources.totox-stage.com/products/igt/web/24473.png</t>
+  </si>
+  <si>
+    <t>1038  Game ID = 24556  Game Provider Name = NetEnt   Game Name =  Twin Happiness  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24556.png</t>
+  </si>
+  <si>
+    <t>1040  Game ID = 24557  Game Provider Name = NetEnt   Game Name =  Twin Spin Deluxe  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24557.png</t>
+  </si>
+  <si>
+    <t>1056  Game ID = 24558  Game Provider Name = NetEnt   Game Name =  Victorious Max  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24558.png</t>
+  </si>
+  <si>
+    <t>1060  Game ID = 24457  Game Provider Name = Booongo   Game Name =  Vikings Winter  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24457.png</t>
+  </si>
+  <si>
+    <t>1071  Game ID = 24496  Game Provider Name = Microgaming   Game Name =  What a Hoot  cod = 404   src = https://resources.totox-stage.com/products/microgaming/web/24496.png</t>
+  </si>
+  <si>
+    <t>1075  Game ID = 24560  Game Provider Name = NetEnt   Game Name =  Who's the Bride  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24560.png</t>
+  </si>
+  <si>
+    <t>1077  Game ID = 24458  Game Provider Name = Booongo   Game Name =  Wild 888  cod = 404   src = https://resources.totox-stage.com/products/booongo/web/24458.png</t>
+  </si>
+  <si>
+    <t>1094  Game ID = 24561  Game Provider Name = NetEnt   Game Name =  Wild Turkey  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24561.png</t>
+  </si>
+  <si>
+    <t>1101  Game ID = 24562  Game Provider Name = NetEnt   Game Name =  Wild Worlds  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24562.png</t>
+  </si>
+  <si>
+    <t>1102  Game ID = 24563  Game Provider Name = NetEnt   Game Name =  Wilderland  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24563.png</t>
+  </si>
+  <si>
+    <t>1105  Game ID = 24564  Game Provider Name = NetEnt   Game Name =  Wings of Riches  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24564.png</t>
+  </si>
+  <si>
+    <t>1109  Game ID = 24565  Game Provider Name = NetEnt   Game Name =  Witchcraft Academy  cod = 404   src = https://resources.totox-stage.com/products/netent/web/24565.png</t>
+  </si>
+  <si>
+    <t>1 ID=24341 Provider=Spribe Name=Aviator cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2 ID=23856 Provider=PragmaticPlay Name=Big Bass Bonanza cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>3 ID=23859 Provider=PragmaticPlay Name=Sweet Bonanza cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>4 ID=23863 Provider=PragmaticPlay Name=Sweet Bonanza XMas cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5 ID=23874 Provider=PragmaticPlay Name=Bigger Bass Bonanza cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>6 ID=23878 Provider=PragmaticPlay Name=Buffalo King Megaways cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>7 ID=23877 Provider=PragmaticPlay Name=Christmas Carol Megaways cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>8 ID=23871 Provider=PragmaticPlay Name=Curse of the Werewolf Megaways cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>9 ID=23883 Provider=PragmaticPlay Name=Great Rhino Megaways cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>10 ID=24315 Provider=PlaysonDirect Name=Legend of Cleopatra Megaways cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>11 ID=23882 Provider=PragmaticPlay Name=Madame Destiny Megaways cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>12 ID=23881 Provider=PragmaticPlay Name=Power of Thor Megaways cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>13 ID=24346 Provider=RelaxGaming Name=Temple Tumble Megaways cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>14 ID=23870 Provider=PragmaticPlay Name=The Dog House Megaways cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>15 ID=24367 Provider=EGT Name=10 Burning Heart cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>16 ID=24362 Provider=EGT Name=100 Burning Hot cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>17 ID=24363 Provider=EGT Name=100 Cats cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>18 ID=24364 Provider=EGT Name=100 Dice cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>19 ID=24365 Provider=EGT Name=100 Super Dice cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>20 ID=24366 Provider=EGT Name=100 Super Hot cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>21 ID=24372 Provider=EGT Name=2 Dragons cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>22 ID=24368 Provider=EGT Name=20 Burning Hot cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>23 ID=24369 Provider=EGT Name=20 Diamonds cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>24 ID=24370 Provider=EGT Name=20 Hot BLast cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>25 ID=24371 Provider=EGT Name=20 Super Dice cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>26 ID=24333 Provider=WMG Name=4 Fowl Play cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>27 ID=24373 Provider=EGT Name=40 Burning Dice cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>28 ID=24374 Provider=EGT Name=40 Burning Hot cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>29 ID=24375 Provider=EGT Name=40 Burning Hot 6 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>30 ID=24376 Provider=EGT Name=40 Lucky King cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>31 ID=24377 Provider=EGT Name=40 Mega Clover cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>32 ID=24378 Provider=EGT Name=40 Super Dice cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>33 ID=24380 Provider=EGT Name=5 Burning Heart cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>34 ID=24381 Provider=EGT Name=5 Hot Dice cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>35 ID=24379 Provider=EGT Name=50 Horses cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>36 ID=24331 Provider=QuickSpin Name=Arcane Gems cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>37 ID=24352 Provider=RelaxGaming Name=Banana Town cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>38 ID=24350 Provider=RelaxGaming Name=Beast Mode cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>39 ID=24318 Provider=PlaysonDirect Name=Book of Gold Multichance	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>40 ID=24317 Provider=PlaysonDirect Name=Buffalo Power cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>41 ID=24334 Provider=WMG Name=Cash Bunny	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>42 ID=24382 Provider=EGT Name=Casino Mania cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>43 ID=24383 Provider=EGT Name=Coral Island cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>45 ID=24351 Provider=RelaxGaming Name=Dead Man's Trail cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>46 ID=23058 Provider=NetEnt Name=Dead or Alive cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>47 ID=23556 Provider=NetEnt Name=Dead or Alive 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>48 ID=24353 Provider=RelaxGaming Name=Dead Riders Trail cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>49 ID=24245 Provider=NoLimitCity Name=Deadwood cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>50 ID=24385 Provider=EGT Name=Dice &amp; Roll cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>51 ID=24384 Provider=EGT Name=Dice of Ra cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>52 ID=24356 Provider=RedRake Name=Disco Nights cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>53 ID=24332 Provider=QuickSpin Name=Dragon Chase cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>54 ID=24322 Provider=QuickSpin Name=Dwarfs Gone Wild cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>55 ID=24386 Provider=EGT Name=Fast Money cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>56 ID=24387 Provider=EGT Name=Flaming Dice cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>57 ID=24388 Provider=EGT Name=Flaming Hot 6 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>58 ID=24335 Provider=WMG Name=Fowl Play Gold	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>59 ID=24336 Provider=WMG Name=Fowl Play London	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>60 ID=24389 Provider=EGT Name=Game of Luck cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>61 ID=24358 Provider=RedRake Name=Gold of Poseidon cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>62 ID=24390 Provider=EGT Name=Greek Fortune cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>63 ID=24337 Provider=WMG Name=Haunted House Rest In Paradise	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>64 ID=24338 Provider=WMG Name=Haunted House	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>65 ID=24324 Provider=QuickSpin Name=Hidden Valley cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>66 ID=24391 Provider=EGT Name=Hot Deco cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>67 ID=24392 Provider=EGT Name=Inca Gold II cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>68 ID=24347 Provider=RelaxGaming Name=Iron Bank cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>69 ID=24325 Provider=QuickSpin Name=Ivan and the Immortal King cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>70 ID=24343 Provider=SmartSoft Name=JetX cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>71 ID=24326 Provider=QuickSpin Name=Joker Strike cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>72 ID=24267 Provider=PlaynGo Name=Legacy of Dead cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>73 ID=24393 Provider=EGT Name=Like a Diamond cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>74 ID=24316 Provider=PlaysonDirect Name=Lion Gems: Hold and Win cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>75 ID=24395 Provider=EGT Name=Lucky &amp; Wild cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>76 ID=24394 Provider=EGT Name=Lucky Hot cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>77 ID=24396 Provider=EGT Name=Magellan Plus cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>78 ID=24359 Provider=RedRake Name=Mega Money cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>79 ID=24349 Provider=RelaxGaming Name=Money Train 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>80 ID=24354 Provider=RelaxGaming Name=Money Train 3 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>81 ID=24397 Provider=EGT Name=More Dice and Roll cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>82 ID=24398 Provider=EGT Name=More Like a Diamond cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>83 ID=24399 Provider=EGT Name=More Lucky &amp; Wild cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>84 ID=24360 Provider=RedRake Name=Muertitos cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>85 ID=24400 Provider=EGT Name=Neon Dice cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>86 ID=24401 Provider=EGT Name=Oil Company II cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>87 ID=24361 Provider=RedRake Name=Planet 67 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>88 ID=24344 Provider=Stake Name=Plinko cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>89 ID=24330 Provider=QuickSpin Name=Polar Paws cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>90 ID=24327 Provider=QuickSpin Name=Prime Zone cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>91 ID=24328 Provider=QuickSpin Name=Rapunzel's Tower cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>92 ID=24402 Provider=EGT Name=Retro Style cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>93 ID=24403 Provider=EGT Name=Rolling Dice cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>94 ID=24404 Provider=EGT Name=Royal Gardens cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>95 ID=24329 Provider=QuickSpin Name=Sakura Fortune cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>96 ID=24272 Provider=PlaynGo Name=Secret of Dead cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>97 ID=24309 Provider=PlaysonDirect Name=Sevens &amp; Fruits cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>98 ID=24308 Provider=PlaysonDirect Name=Sevens &amp; Fruits: 20 lines cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>99 ID=24345 Provider=RelaxGaming Name=Snake Arena cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>100 ID=24314 Provider=PlaysonDirect Name=Solar Temple cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>101 ID=24355 Provider=RelaxGaming Name=Spirit of The Beast cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>102 ID=24405 Provider=EGT Name=Summer Bliss cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>103 ID=24406 Provider=EGT Name=Super 20 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>104 ID=24310 Provider=PlaysonDirect Name=Super Burning Wins cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>105 ID=24311 Provider=PlaysonDirect Name=Super Burning Wins: Respin cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>106 ID=24407 Provider=EGT Name=Supreme Dice cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>107 ID=24408 Provider=EGT Name=The Big Journey cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>108 ID=24323 Provider=QuickSpin Name=The Grand cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>109 ID=24409 Provider=EGT Name=The Great Egypt cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>110 ID=24410 Provider=EGT Name=The White Wolf cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>111 ID=24312 Provider=PlaysonDirect Name=Thunder Reels cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>112 ID=24313 Provider=PlaysonDirect Name=Wild Burning Wins: 5 lines cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>113 ID=24348 Provider=RelaxGaming Name=Wild Chapo cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>114 ID=24320 Provider=PragmaticPlay Name=Wild West Gold cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>115 ID=24319 Provider=PlaysonDirect Name=Wolf Power cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>116 ID=24357 Provider=RedRake Name=World Football cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>117 ID=24339 Provider=WMG Name=Yabba Dabba Dosh	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>118 ID=23226 Provider=Amatic Name=A Book of Aztec cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>119 ID=24203 Provider=Betsoft Name=Book of Darkness	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>120 ID=24264 Provider=PlaynGo Name=Book of Dead cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>121 ID=23227 Provider=Amatic Name=Book of Fortune cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>122 ID=23974 Provider=Amatic Name=Book of Fruits 20	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>123 ID=23975 Provider=Amatic Name=Book of Fruits Halloween	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>124 ID=24276 Provider=PlaysonDirect Name=Book of Gold: Classic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>125 ID=24286 Provider=PlaysonDirect Name=Book of Gold: Double Chance cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>126 ID=24285 Provider=PlaysonDirect Name=Book of Gold: Symbol Choice cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>127 ID=23965 Provider=Amatic Name=Book of Lords	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>128 ID=23418 Provider=Wazdan Name=Book of Magic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>129 ID=23386 Provider=Greentube Name=Book of Maya cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>130 ID=23966 Provider=Amatic Name=Book of Queen	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>131 ID=23361 Provider=Greentube Name=Book of Ra 6 deluxe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>132 ID=23341 Provider=Gaminator Name=Book of Ra classic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>133 ID=23178 Provider=Greentube Name=Book of Ra Classic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>134 ID=23177 Provider=Greentube Name=Book of Ra Deluxe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>135 ID=24218 Provider=Greentube Name=Book of Ra Magic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>136 ID=23367 Provider=Greentube Name=Book of Stars cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>137 ID=23891 Provider=PragmaticPlay Name=Book of Vikings cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>138 ID=23846 Provider=PragmaticPlay Name=John Hunter and the book of Tut cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>139 ID=24251 Provider=NoLimitCity Name=×Ways Hoarder Split cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>140 ID=24274 Provider=PlaysonDirect Name=100 Joker Staxx cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>142 ID=23483 Provider=Microgaming Name=108 Heroes cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>143 ID=24418 Provider=Booongo Name=15 Dragon Pearls cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>144 ID=24488 Provider=Microgaming Name=24488 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>145 ID=24516 Provider=NetEnt Name=24516 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>146 ID=24275 Provider=PlaysonDirect Name=3 Fruits Win cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>147 ID=24284 Provider=PlaysonDirect Name=40 Joker Staxx cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>148 ID=23999 Provider=Aristocrat Name=5 Dragons	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>149 ID=24115 Provider=Aristocrat Name=5 Koi cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>150 ID=23868 Provider=PragmaticPlay Name=5 Lions cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>151 ID=23869 Provider=PragmaticPlay Name=5 Lions Dance cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>152 ID=23872 Provider=PragmaticPlay Name=5 Lions Gold cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>153 ID=24474 Provider=Microgaming Name=5 Reel Drive cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>154 ID=24103 Provider=Aristocrat Name=50 Lions	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>155 ID=24419 Provider=Booongo Name=777 Gems Respin cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>156 ID=24420 Provider=Booongo Name=88 Wild Dragon cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>157 ID=24411 Provider=Amatic Name=A Book of Aztec Bonuy Buy cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>158 ID=23225 Provider=Amatic Name=Admiral Nelson cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>159 ID=23623 Provider=Microgaming Name=Adventure Palace cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>160 ID=23366 Provider=Greentube Name=African Simba cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>161 ID=24421 Provider=Booongo Name=African spirit cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>162 ID=24422 Provider=Booongo Name=Age of Caesar cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>163 ID=23695 Provider=EGT Name=Age of Troy cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>164 ID=23603 Provider=Microgaming Name=Agent Jane Blonde cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>165 ID=23538 Provider=Microgaming Name=Alaskan Fishing cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>166 ID=23901 Provider=Spadegaming Name=Alien Hunter	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>167 ID=23119 Provider=NetEnt Name=Aliens cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>168 ID=23076 Provider=NetEnt Name=Aliens touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>169 ID=24207 Provider=Betsoft Name=Alkemor's Tower	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>170 ID=23973 Provider=Amatic Name=All Ways Hot Fruits	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>171 ID=23953 Provider=Amatic Name=All Ways Joker	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>172 ID=23958 Provider=Amatic Name=All Ways WIn	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>173 ID=23235 Provider=Amatic Name=Allways Fruits cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>174 ID=23048 Provider=NetEnt Name=Aloha! Cluster Pays cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>175 ID=23345 Provider=Gaminator Name=Always Hot classic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>176 ID=23223 Provider=Greentube Name=Always Hot Deluxe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>177 ID=23696 Provider=EGT Name=Amazing Amazonia cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>178 ID=23399 Provider=Greentube Name=American Gangster cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>179 ID=23558 Provider=NetEnt Name=American Roulette cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>180 ID=23570 Provider=Merkur Name=Amulet of the Pharaoh cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>181 ID=24499 Provider=NetEnt Name=arcane cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>182 ID=23507 Provider=NetEnt Name=Archangels cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>183 ID=23624 Provider=Microgaming Name=Ariana cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>184 ID=23245 Provider=Amatic Name=Arising Phoenix cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>185 ID=23014 Provider=QuickSpin Name=Ark of Mystery cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>186 ID=23498 Provider=Greentube Name=Arriva Arriva cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>187 ID=23508 Provider=NetEnt Name=Asgardian Stones cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>188 ID=24214 Provider=Greentube Name=Asian Attraction cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>189 ID=23607 Provider=Microgaming Name=Asian Beauty cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>190 ID=23126 Provider=NetEnt Name=Attraction cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>191 ID=24215 Provider=Greentube Name=Autumn Queen cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>192 ID=23539 Provider=Microgaming Name=Avalon cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>193 ID=23784 Provider=PragmaticPlay Name=Aztec Gems Deluxe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>194 ID=24460 Provider=EGT Name=Aztec Glory cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>195 ID=23246 Provider=Amatic Name=Aztec Secret cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>196 ID=23527 Provider=NetEnt Name=Baccarat cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>197 ID=23436 Provider=Wazdan Name=Back to the 70`s cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>198 ID=23571 Provider=Merkur Name=Baker Street cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>199 ID=23346 Provider=Gaminator Name=Bananas Go Bahamas cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>200 ID=23504 Provider=Greentube Name=Bars and Sevens cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>201 ID=23608 Provider=Microgaming Name=Basketball Star cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>202 ID=23468 Provider=PlayTech Name=Batman &amp; the Joker Jewels cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>203 ID=23469 Provider=PlayTech Name=Batman &amp; the Penguin Prize cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>204 ID=23470 Provider=PlayTech Name=Batman vs Superman: Dawn of Justice cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>205 ID=23130 Provider=NetEnt Name=Beach cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>206 ID=23459 Provider=Wazdan Name=Beach Party cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>207 ID=23563 Provider=Microgaming Name=Beautiful Bones cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>208 ID=24500 Provider=NetEnt Name=Bee Hive Bonanza cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>209 ID=23210 Provider=Greentube Name=Beetle Mania Deluxe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>210 ID=23458 Provider=Wazdan Name=Bell Wizard cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>211 ID=23232 Provider=Amatic Name=Bells on Fire cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>212 ID=23247 Provider=Amatic Name=Bells on Fire HOT cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>213 ID=23248 Provider=Amatic Name=Bells on Fire ROMBO cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>214 ID=23521 Provider=NetEnt Name=Berry Burst cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>215 ID=23522 Provider=NetEnt Name=Berry Burst max cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>216 ID=23741 Provider=QuickSpin Name=Big Bad Wolf cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>217 ID=23773 Provider=PushGaming Name=Big Bamboo cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>218 ID=23122 Provider=NetEnt Name=Big Bang cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>219 ID=23078 Provider=NetEnt Name=Big Bang touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>220 ID=23898 Provider=PragmaticPlay Name=Big Bass Splash cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>221 ID=23330 Provider=Aristocrat Name=Big Ben HTML cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>222 ID=23725 Provider=QuickSpin Name=Big Bot Crew cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>223 ID=23572 Provider=Merkur Name=Big buck bunny cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>224 ID=23671 Provider=Microgaming Name=Big Kahuna cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>225 ID=23396 Provider=Amatic Name=Big Panda cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>226 ID=24000 Provider=Aristocrat Name=Big Red	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>227 ID=24412 Provider=Amatic Name=Billyonaire Bonus Buy cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>228 ID=23951 Provider=Amatic Name=Billy's game	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>229 ID=23417 Provider=Wazdan Name=Black Hawk cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>230 ID=23756 Provider=Wazdan Name=Black Hawk Deluxe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>231 ID=23460 Provider=Wazdan Name=Black Horse cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>232 ID=23530 Provider=NetEnt Name=Black Jack 3 hands cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>233 ID=24423 Provider=Booongo Name=Black Wolf cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>234 ID=23211 Provider=NetEnt Name=Blackjack Classic touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>235 ID=23397 Provider=NetEnt Name=Blackjack Single Deck touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>236 ID=23395 Provider=NetEnt Name=Blackjack touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>237 ID=23573 Provider=Merkur Name=Blazing Star cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>238 ID=23484 Provider=Apollo Name=Blood cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>239 ID=23088 Provider=NetEnt Name=Blood Suckers cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>240 ID=23055 Provider=NetEnt Name=Blood Suckers 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>241 ID=23044 Provider=NetEnt Name=Blood Suckers touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>242 ID=23231 Provider=Amatic Name=Blue Dolphin cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>243 ID=23697 Provider=EGT Name=Blue Heart cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>244 ID=23403 Provider=NetEnt Name=BOB the Epic Viking Quest cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>245 ID=23413 Provider=NetEnt Name=Bollywood Story cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>246 ID=24568 Provider=PlayTech Name=Bonanza Gold cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>247 ID=23485 Provider=Apollo Name=Bonus Joker II cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>248 ID=24424 Provider=Booongo Name=Book of Sun cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>249 ID=24425 Provider=Booongo Name=Book of Sun: Multichance cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>250 ID=23133 Provider=NetEnt Name=Boom Brothers cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>251 ID=23672 Provider=Microgaming Name=Booty Time cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>252 ID=24475 Provider=Microgaming Name=Break Da Bank cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>253 ID=23531 Provider=Microgaming Name=Break da Bank Again cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>254 ID=23601 Provider=Microgaming Name=Breakaway cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>255 ID=24426 Provider=Booongo Name=Buddha Fortune cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>256 ID=24100 Provider=Aristocrat Name=Buffalo cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>257 ID=23779 Provider=PragmaticPlay Name=Buffalo King cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>258 ID=24413 Provider=Amatic Name=Buffalo Thunderstacks cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>259 ID=23387 Provider=Greentube Name=Bugs'n'Bees cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>260 ID=23368 Provider=Greentube Name=Bullion Bars cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>261 ID=23532 Provider=Microgaming Name=Burning Desire cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>262 ID=23699 Provider=EGT Name=Burning Hot cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>263 ID=24210 Provider=Greentube Name=Burning Hot Respin cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>264 ID=23435 Provider=Wazdan Name=Burning Reels cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>265 ID=23424 Provider=Wazdan Name=Burning Stars cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>266 ID=24277 Provider=PlaysonDirect Name=Burning Wins cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>267 ID=24461 Provider=EGT Name=burning_dice_html cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>268 ID=24476 Provider=Microgaming Name=Bush Telegraph cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>269 ID=24477 Provider=Microgaming Name=Bust the Bank cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>270 ID=23404 Provider=NetEnt Name=Butterfly Staxx cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>271 ID=24505 Provider=NetEnt Name=Butterfly Staxx 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>272 ID=24427 Provider=Booongo Name=Caishen Wealth cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>273 ID=23853 Provider=PragmaticPlay Name=Caishen's Gold cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>274 ID=23574 Provider=Merkur Name=Candy Fruits cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>275 ID=23420 Provider=Wazdan Name=Captain Shark cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>276 ID=23192 Provider=Greentube Name=Captain Venture cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>277 ID=23369 Provider=Greentube Name=Caribbean Holidays cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>278 ID=24478 Provider=Microgaming Name=Carnaval cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>279 ID=23971 Provider=Amatic Name=Casanova cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>280 ID=23289 Provider=IGT Name=Cash Coaster cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>281 ID=23575 Provider=Merkur Name=Cash fruits plus cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>282 ID=24506 Provider=NetEnt Name=Cash Noire cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>283 ID=23501 Provider=Greentube Name=Cash Runner cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>284 ID=23540 Provider=Microgaming Name=Cashapillar cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>285 ID=24507 Provider=NetEnt Name=Cash-o-matic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>286 ID=24479 Provider=Microgaming Name=Cashville cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>287 ID=23250 Provider=Amatic Name=Casinova cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>288 ID=23290 Provider=IGT Name=Cats cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>289 ID=23087 Provider=NetEnt Name=Champion of the track cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>290 ID=24212 Provider=Greentube Name=Changing Fate 40 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>291 ID=24223 Provider=Hacksaw Name=Chaos Crew cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>292 ID=23890 Provider=PragmaticPlay Name=Chiken Drop cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>293 ID=24219 Provider=Greentube Name=Chili Bomba cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>294 ID=23783 Provider=PragmaticPlay Name=Chilli Heat cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>295 ID=24252 Provider=Konami Name=China Mystery cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>296 ID=23326 Provider=Aristocrat Name=Choy Sun Doa HTML cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>297 ID=24428 Provider=Booongo Name=Christmas Charm cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>298 ID=23215 Provider=Greentube Name=Cindereela cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>299 ID=23291 Provider=IGT Name=Cleopatra cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>300 ID=24278 Provider=PlaysonDirect Name=Clover Riches cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>301 ID=23576 Provider=Merkur Name=Coffeehouse Mystery cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>302 ID=23382 Provider=Greentube Name=Coin of Apollo cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>303 ID=24509 Provider=NetEnt Name=Coins of Egypt cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>304 ID=23437 Provider=Wazdan Name=Colin the Cat cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>305 ID=23726 Provider=QuickSpin Name=Colossus cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>306 ID=23337 Provider=Gaminator Name=Columbus classic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>307 ID=23179 Provider=Greentube Name=Columbus Deluxe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>308 ID=23884 Provider=PragmaticPlay Name=Congo Cash cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>309 ID=23251 Provider=Amatic Name=Cool Diamonds II cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>310 ID=23620 Provider=Microgaming Name=Cool Wolf cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>311 ID=23410 Provider=NetEnt Name=CopyCats cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>312 ID=23419 Provider=Wazdan Name=Corrida Romance cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>313 ID=23880 Provider=PragmaticPlay Name=Cowboys Gold cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>314 ID=23292 Provider=IGT Name=Coyote Moon cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>315 ID=23456 Provider=Wazdan Name=Crazy Cars cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>316 ID=23284 Provider=Igrosoft Name=Crazy Monkey cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>317 ID=23277 Provider=Igrosoft Name=Crazy Monkey 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>318 ID=23131 Provider=NetEnt Name=Creature From The Black Lagoon cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>319 ID=23132 Provider=NetEnt Name=Crime Scene cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>320 ID=23457 Provider=Wazdan Name=CrisCross 81 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>321 ID=23089 Provider=NetEnt Name=Crusade of Fortune cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>322 ID=23742 Provider=QuickSpin Name=Crystal Queen cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>323 ID=24224 Provider=Hacksaw Name=Cubes 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>324 ID=24510 Provider=NetEnt Name=Dark King: Forbidden Riches cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>325 ID=23036 Provider=NetEnt Name=Dazzle Me cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>326 ID=23197 Provider=Greentube Name=Dazzling Diamonds cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>327 ID=24511 Provider=NetEnt Name=Dead or Alive 2 Feature Buy cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>328 ID=23541 Provider=Microgaming Name=Deck the Halls cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>329 ID=23146 Provider=NetEnt Name=Demolition Squad cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>330 ID=23425 Provider=Wazdan Name=Demon Jack 27 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>331 ID=24253 Provider=Konami Name=Destiny of Athena cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>332 ID=23167 Provider=NetEnt Name=Deuces Wild cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>333 ID=23165 Provider=NetEnt Name=Deuces Wild cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>334 ID=23166 Provider=NetEnt Name=Deuses Wild cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>335 ID=23092 Provider=NetEnt Name=Devil`s Delight cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>336 ID=23252 Provider=Amatic Name=Diamond Cats cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>337 ID=23086 Provider=NetEnt Name=Diamond Dogs cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>338 ID=23253 Provider=Amatic Name=Diamond Monkey cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>339 ID=23295 Provider=IGT Name=Diamond Queen cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>340 ID=23780 Provider=PragmaticPlay Name=Diamond Strike cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>341 ID=23347 Provider=Gaminator Name=Diamond Trio cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>342 ID=23254 Provider=Amatic Name=Diamonds on Fire cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>343 ID=23486 Provider=Apollo Name=Dice 81 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>344 ID=23455 Provider=Wazdan Name=Dino Reels 81 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>345 ID=23767 Provider=PushGaming Name=Dinopolis cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>346 ID=23151 Provider=NetEnt Name=Disco Spins cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>347 ID=23727 Provider=QuickSpin Name=Divine Dreams cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>348 ID=23533 Provider=Microgaming Name=Dolphin Quest cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>349 ID=24104 Provider=Aristocrat Name=Dolphin Treasure	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>350 ID=23180 Provider=Greentube Name=Dolphin`s Pearl Classic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>351 ID=23181 Provider=Greentube Name=Dolphin`s Pearl Deluxe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>352 ID=23332 Provider=Gaminator Name=Dolphin's Pearl classic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>353 ID=24468 Provider=IGT Name=Double Diamond cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>354 ID=24112 Provider=Aristocrat Name=Double Happiness cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>355 ID=23524 Provider=NetEnt Name=Double Stacks cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>356 ID=23577 Provider=Merkur Name=Double Triple chance cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>357 ID=23136 Provider=NetEnt Name=Dracula cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>358 ID=23080 Provider=NetEnt Name=Dracula touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>359 ID=23128 Provider=NetEnt Name=Dragon Island cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>360 ID=23854 Provider=PragmaticPlay Name=Dragon Kingdom cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>361 ID=23977 Provider=Amatic Name=Dragon Mystery	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>362 ID=24429 Provider=Booongo Name=Dragon Pearls cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>363 ID=23694 Provider=EGT Name=Dragon Reels cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>364 ID=23728 Provider=QuickSpin Name=Dragon Shrine cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>365 ID=23392 Provider=Greentube Name=Dragon`s Pearl cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>366 ID=23274 Provider=Greentube Name=Dragon's Deep cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>367 ID=23976 Provider=Amatic Name=Dragons Gift	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>368 ID=23255 Provider=Amatic Name=Dragons Kingdom cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>369 ID=23236 Provider=Amatic Name=Dragon's Pearl cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>370 ID=23578 Provider=Merkur Name=Dragons Treasure cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>371 ID=23598 Provider=Microgaming Name=Dragonz cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>372 ID=23594 Provider=Microgaming Name=Dream Date cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>373 ID=23045 Provider=NetEnt Name=Drive Multiplier Mayhem cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>374 ID=24512 Provider=NetEnt Name=Druids' Dream cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>375 ID=23729 Provider=QuickSpin Name=Durian Dynamite cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>376 ID=23182 Provider=Greentube Name=Dynasty of Ra cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>377 ID=23534 Provider=Microgaming Name=Eagles Wings cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>378 ID=24271 Provider=PlaynGo Name=Easter Eggs cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>379 ID=23730 Provider=QuickSpin Name=Eastern Emeralds cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>380 ID=23513 Provider=NetEnt Name=Eggomatic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>381 ID=23108 Provider=NetEnt Name=Egyptian Heroes cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>382 ID=23060 Provider=NetEnt Name=Elements cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>383 ID=24513 Provider=NetEnt Name=Emojiplanet cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>384 ID=23542 Provider=Microgaming Name=Emoticoins cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>385 ID=23606 Provider=Microgaming Name=Emperor of the Sea cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>386 ID=24205 Provider=Betsoft Name=Enchanted cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>387 ID=23954 Provider=Amatic Name=Enchanted Cleopatra	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>388 ID=23142 Provider=NetEnt Name=Evolution cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>389 ID=23552 Provider=NetEnt Name=Excalibur cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>390 ID=23895 Provider=PragmaticPlay Name=Extra Juicy cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>391 ID=23579 Provider=Merkur Name=Extra Wild cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>392 ID=23234 Provider=Amatic Name=Eye of Ra cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>393 ID=23499 Provider=Greentube Name=Eye of the Dragon cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>394 ID=23731 Provider=QuickSpin Name=Fairy Gate cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>395 ID=23216 Provider=Greentube Name=Fairy Queen cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>396 ID=24514 Provider=NetEnt Name=Fairytale Legends: Hansel and Gretel cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>397 ID=24515 Provider=NetEnt Name=Fairytale Legends: Mirror Mirror cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>398 ID=23774 Provider=PushGaming Name=Fat Rabbit cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>399 ID=23769 Provider=PushGaming Name=Fat Santa cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>400 ID=23183 Provider=Greentube Name=Faust cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>401 ID=23415 Provider=Wazdan Name=Fenix Play cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>402 ID=23416 Provider=Wazdan Name=Fenix Play 27 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>403 ID=24517 Provider=NetEnt Name=Finn's Golden Tavern cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>404 ID=23256 Provider=Amatic Name=Fire &amp; Ice cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>405 ID=23465 Provider=Wazdan Name=Fire Bird cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>406 ID=24246 Provider=NoLimitCity Name=Fire In The Hole xBomb cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>407 ID=24270 Provider=PlaynGo Name=Fire Joker cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>408 ID=24113 Provider=Aristocrat Name=Fire Light	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>409 ID=23580 Provider=Merkur Name=Fire of Egypt cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>410 ID=23296 Provider=IGT Name=Fire Opals cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>411 ID=23844 Provider=PragmaticPlay Name=FIre Strike cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>412 ID=24480 Provider=Microgaming Name=Fish Party cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>413 ID=23899 Provider=Spadegaming Name=Fishing God	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>414 ID=23900 Provider=Spadegaming Name=Fishing War	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>415 ID=23145 Provider=NetEnt Name=Fisticuffs cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>416 ID=23203 Provider=Greentube Name=Flame Dancer cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>417 ID=24114 Provider=Aristocrat Name=Flame of Olympus	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>418 ID=23209 Provider=Greentube Name=Flamenco Roses cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>419 ID=23701 Provider=EGT Name=Flaming Hot cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>420 ID=23857 Provider=PragmaticPlay Name=Floating Dragon Hold and Spin cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>421 ID=23097 Provider=NetEnt Name=Flowers cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>422 ID=23051 Provider=NetEnt Name=Flowers Christmas Edition cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>423 ID=23035 Provider=NetEnt Name=Flowers touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>424 ID=23049 Provider=NetEnt Name=Football: Champions Cup cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>425 ID=23543 Provider=Microgaming Name=Forbidden Throne cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>426 ID=23237 Provider=Amatic Name=Fortuna's Fruits cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>427 ID=23544 Provider=Microgaming Name=Fortune Girl cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>428 ID=24430 Provider=Booongo Name=Fortune Multiplier cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>429 ID=24518 Provider=NetEnt Name=Fortune rangers cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>430 ID=23757 Provider=Wazdan Name=Fortune Reels cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>431 ID=23702 Provider=EGT Name=Fortune Spells cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>432 ID=24254 Provider=Konami Name=Fortune Stacks cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>433 ID=23085 Provider=NetEnt Name=FortuneTeller cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>434 ID=24481 Provider=Microgaming Name=Fortunium cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>435 ID=23104 Provider=NetEnt Name=Frankenstein cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>436 ID=23079 Provider=NetEnt Name=Frankenstein touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>437 ID=23557 Provider=NetEnt Name=French Roulette cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>438 ID=23120 Provider=NetEnt Name=Fruit Case cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>439 ID=24520 Provider=NetEnt Name=Fruit Case cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>440 ID=23281 Provider=Igrosoft Name=Fruit Cocktail cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>441 ID=23288 Provider=Igrosoft Name=Fruit cocktail 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>442 ID=23858 Provider=PragmaticPlay Name=Fruit Party cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>443 ID=23855 Provider=PragmaticPlay Name=Fruit Rainbow cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>444 ID=23196 Provider=Greentube Name=Fruit Sensation cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>445 ID=23031 Provider=NetEnt Name=Fruit Shop touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>446 ID=23408 Provider=NetEnt Name=Fruit Spin cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>447 ID=24279 Provider=PlaysonDirect Name=Fruit Supreme cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>448 ID=24293 Provider=PlaysonDirect Name=Fruit Xtreme cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>449 ID=24287 Provider=PlaysonDirect Name=Fruits &amp; Clovers: 20 lines cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>450 ID=24288 Provider=PlaysonDirect Name=Fruits &amp; Jokers: 100 lines cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>451 ID=24289 Provider=PlaysonDirect Name=Fruits &amp; Jokers: 20 lines cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>452 ID=24290 Provider=PlaysonDirect Name=Fruits &amp; Jokers: 40 lines cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>453 ID=23195 Provider=Greentube Name=Fruits and Royals cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>454 ID=24291 Provider=PlaysonDirect Name=Fruits 'n' Stars cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>455 ID=24292 Provider=PlaysonDirect Name=Fruits 'n' Stars Holiday Edition cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>456 ID=24294 Provider=PlaysonDirect Name=Fruits of the Nile cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>457 ID=23052 Provider=NetEnt Name=Fruitshop Christmas Edition cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>458 ID=24431 Provider=Booongo Name=Fruity Wild cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>459 ID=23199 Provider=Greentube Name=Frutilicious cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>460 ID=24432 Provider=Booongo Name=Fu Cai Shen cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>461 ID=23152 Provider=NetEnt Name=Funky Seventies cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>462 ID=23545 Provider=Microgaming Name=Game of Thrones cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>463 ID=23546 Provider=Microgaming Name=Game of Thrones 243 Ways cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>464 ID=23518 Provider=Apollo Name=Gangster World cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>465 ID=23276 Provider=Igrosoft Name=Garage cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>466 ID=23297 Provider=IGT Name=Garden Party cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>467 ID=24569 Provider=PlayTech Name=Gates of GatotKaca cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>468 ID=23862 Provider=PragmaticPlay Name=Gates of Olympus cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>469 ID=24105 Provider=Aristocrat Name=Geisha cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>470 ID=23257 Provider=Amatic Name=Gem Star cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>471 ID=23743 Provider=QuickSpin Name=Genies Touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>472 ID=23515 Provider=NetEnt Name=Ghost Pirates cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>473 ID=23662 Provider=Microgaming Name=Girls with Guns cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>474 ID=23682 Provider=Microgaming Name=Girls with Guns: Frozen Dawn cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>475 ID=23471 Provider=PlayTech Name=Gladiator: Road to Rome cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>476 ID=23516 Provider=NetEnt Name=Glow cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>477 ID=23282 Provider=Igrosoft Name=Gnome cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>478 ID=23139 Provider=NetEnt Name=Go Bananas cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>479 ID=24521 Provider=NetEnt Name=Go Bananas cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>480 ID=24295 Provider=PlaysonDirect Name=God of Wild Sea cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>481 ID=23611 Provider=Microgaming Name=Gods of Giza cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>482 ID=24522 Provider=NetEnt Name=Gods of Gold INFINIREELS cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>483 ID=23581 Provider=Merkur Name=Gold Cup cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>484 ID=24202 Provider=Betsoft Name=Gold Diggers	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>485 ID=23583 Provider=Merkur Name=Gold of Persia cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>486 ID=23893 Provider=PragmaticPlay Name=Gold Rush cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>487 ID=23885 Provider=PragmaticPlay Name=Gold Train cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>488 ID=23184 Provider=Greentube Name=Golden Ark cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>489 ID=23258 Provider=Amatic Name=Golden Book cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>490 ID=23582 Provider=Merkur Name=Golden Gate cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>491 ID=23550 Provider=NetEnt Name=Golden Grimoire cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>492 ID=23956 Provider=Amatic Name=Golden Joker	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>493 ID=23978 Provider=Amatic Name=Golden Quest	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>494 ID=23426 Provider=Wazdan Name=Golden Sphinx cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>495 ID=24263 Provider=Konami Name=Golden Wolves cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>496 ID=23021 Provider=QuickSpin Name=Goldilocks &amp; Wild Bears cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>497 ID=23015 Provider=QuickSpin Name=GoldLab cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>498 ID=24523 Provider=NetEnt Name=Gonzo's Gold cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>499 ID=23027 Provider=NetEnt Name=Gonzos Quest touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>500 ID=23421 Provider=Wazdan Name=Good Luck 40 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>501 ID=24524 Provider=NetEnt Name=Gordon Ramsay Hell's Kitchen cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>502 ID=23185 Provider=Greentube Name=Gorilla cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>503 ID=23676 Provider=Microgaming Name=Gothic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>504 ID=23704 Provider=EGT Name=Grace of Cleopatra cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>505 ID=23298 Provider=IGT Name=Grand Monarch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>506 ID=24525 Provider=NetEnt Name=Grand Spinn cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>507 ID=23979 Provider=Amatic Name=Grand Tiger	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>508 ID=23932 Provider=Amatic Name=Grand X	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>509 ID=23781 Provider=PragmaticPlay Name=Great Rhino cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>510 ID=23782 Provider=PragmaticPlay Name=Great Rhino Deluxe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>511 ID=23153 Provider=NetEnt Name=Groovy Sixties cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>512 ID=23213 Provider=Greentube Name=Gryphon`s Gold Deluxe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>513 ID=23343 Provider=Gaminator Name=Gryphons Gold classic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>514 ID=23046 Provider=NetEnt Name=Guns 'N' Roses cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>515 ID=24255 Provider=Konami Name=Gypsy Fire cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>516 ID=23564 Provider=Microgaming Name=Halloween cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>517 ID=23526 Provider=NetEnt Name=Halloween Jack cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>518 ID=24482 Provider=Microgaming Name=Halloweenies cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>519 ID=24265 Provider=PlaynGo Name=Happy Halloween cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>520 ID=23352 Provider=Gaminator Name=Hat Trick cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>521 ID=23453 Provider=Wazdan Name=Haunted Hospital cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>522 ID=24262 Provider=Konami Name=Heart of Romance cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>523 ID=23224 Provider=Greentube Name=Helena cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>524 ID=23991 Provider=Apollo Name=Hell cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>525 ID=23677 Provider=Microgaming Name=Hell`s Grannies cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>526 ID=23866 Provider=PragmaticPlay Name=Hercules Son of Zeus cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>527 ID=23547 Provider=Microgaming Name=Highlander cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>528 ID=23452 Provider=Wazdan Name=Highschool Manga cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>529 ID=23758 Provider=Wazdan Name=Highway to hell cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>530 ID=23401 Provider=NetEnt Name=Hit 2 Split cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>531 ID=24433 Provider=Booongo Name=Hit More Gold! cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>532 ID=23627 Provider=Microgaming Name=Hollyjolly Penguins cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>533 ID=23037 Provider=NetEnt Name=Hook's Heroes cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>534 ID=23961 Provider=Amatic Name=Hot 27 Dice	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>535 ID=23936 Provider=Amatic Name=Hot 27	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>536 ID=23955 Provider=Amatic Name=Hot 40	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>537 ID=23960 Provider=Amatic Name=Hot 7 Dice	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>538 ID=23454 Provider=Wazdan Name=Hot 777 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>539 ID=23980 Provider=Amatic Name=Hot 81	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>540 ID=23353 Provider=Greentube Name=Hot Chance cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>541 ID=23981 Provider=Amatic Name=Hot Choice Deluxe	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>542 ID=23970 Provider=Amatic Name=Hot Choice	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>543 ID=23084 Provider=NetEnt Name=Hot City cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>544 ID=23243 Provider=Amatic Name=Hot Diamonds cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>545 ID=23864 Provider=PragmaticPlay Name=Hot Fiesta cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>546 ID=23964 Provider=Amatic Name=Hot Fruits 100	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>547 ID=23962 Provider=Amatic Name=Hot Fruits 20	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>548 ID=23972 Provider=Amatic Name=Hot Fruits 27	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>549 ID=23963 Provider=Amatic Name=Hot Fruits 40	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>550 ID=23937 Provider=Amatic Name=Hot Neon	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>551 ID=23427 Provider=Wazdan Name=Hot Party cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>552 ID=23259 Provider=Amatic Name=Hot Scatter cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>553 ID=23959 Provider=Amatic Name=Hot Scatter Dice	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>554 ID=23233 Provider=Amatic Name=Hot Seven cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>555 ID=23260 Provider=Amatic Name=Hot Star cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>556 ID=23732 Provider=QuickSpin Name=Hot Sync cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>557 ID=23242 Provider=Amatic Name=Hot Twenty cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>558 ID=23509 Provider=NetEnt Name=Hotline cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>559 ID=24526 Provider=NetEnt Name=Hotline 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>560 ID=23950 Provider=Amatic Name=Hottest Fruits 20	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>561 ID=23535 Provider=Microgaming Name=Huangdi Yellow Emperor cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>562 ID=23438 Provider=Wazdan Name=Hungry Shark cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>563 ID=23497 Provider=Greentube Name=Hypno Hippo cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>564 ID=24227 Provider=Kajot Name=Ice Bar 27 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>565 ID=23744 Provider=QuickSpin Name=Illuminous cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>566 ID=23565 Provider=Microgaming Name=Immortal Romance cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>567 ID=24296 Provider=PlaysonDirect Name=Imperial Fruits: 100 Lines cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>568 ID=24297 Provider=PlaysonDirect Name=Imperial Fruits: 40 Lines cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>569 ID=24298 Provider=PlaysonDirect Name=Imperial Fruits: 5 Lines cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>570 ID=24256 Provider=Konami Name=Imperial Wealth cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>571 ID=23439 Provider=Wazdan Name=In the Forest cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>572 ID=23193 Provider=Greentube Name=Indian Spirit cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>573 ID=24247 Provider=NoLimitCity Name=Infectious 5 Ways cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>574 ID=23273 Provider=Greentube Name=Inferno cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>575 ID=24269 Provider=PlaynGo Name=Inferno Star cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>576 ID=23628 Provider=Microgaming Name=Isis cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>577 ID=23286 Provider=Igrosoft Name=Island cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>578 ID=23287 Provider=Igrosoft Name=Island 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>579 ID=23109 Provider=NetEnt Name=Jack &amp; Beanstalk cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>580 ID=23024 Provider=NetEnt Name=Jack &amp; Beanstalk touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>581 ID=23098 Provider=NetEnt Name=Jack Hammer cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>582 ID=23099 Provider=NetEnt Name=Jack Hammer 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>583 ID=23028 Provider=NetEnt Name=Jack Hammer 2 touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>584 ID=23023 Provider=NetEnt Name=Jack Hammer touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>585 ID=23450 Provider=Wazdan Name=Jack on Hold cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>586 ID=23451 Provider=Wazdan Name=Jackpot Builders cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>587 ID=23163 Provider=NetEnt Name=Jacks or Better cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>588 ID=23162 Provider=NetEnt Name=Jacks or Better cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>589 ID=20106 Provider=PragmaticPlay Name=Jaguar Mist	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>590 ID=23584 Provider=Merkur Name=Jamboree Jubilee cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>591 ID=23770 Provider=PushGaming Name=Jammin' Jars cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>592 ID=23775 Provider=PushGaming Name=Jammin' Jars 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>593 ID=23654 Provider=Microgaming Name=Jekyll&amp;Hyde cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>594 ID=24217 Provider=Greentube Name=Jester's Luck cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>595 ID=23299 Provider=IGT Name=Jewel of the Arts cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>596 ID=24208 Provider=Gaminator Name=Jewels 4 All cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>597 ID=23360 Provider=Greentube Name=Jewels of the Sea cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>598 ID=23047 Provider=NetEnt Name=Jimi Hendrix cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>599 ID=23514 Provider=NetEnt Name=Jingle Spin cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>600 ID=23889 Provider=PragmaticPlay Name=John Hunter and the secrets of Da Vinci's Treasure cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>601 ID=23896 Provider=PragmaticPlay Name=John Hunter and the Tomb of the Scarab Queen cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>602 ID=24226 Provider=Kajot Name=Joker 27 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>603 ID=24228 Provider=Kajot Name=Joker 27 plus cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>604 ID=24229 Provider=Kajot Name=Joker 81 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>605 ID=24230 Provider=Kajot Name=Joker Boom plus cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>606 ID=24280 Provider=PlaysonDirect Name=Joker Expand: 40 lines cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>607 ID=24299 Provider=PlaysonDirect Name=Joker Expand: 5 lines cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>608 ID=23759 Provider=Wazdan Name=Joker Explosion cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>609 ID=23412 Provider=NetEnt Name=Joker Pro cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>610 ID=24231 Provider=Kajot Name=Joker Strong cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>611 ID=24281 Provider=PlaysonDirect Name=Juice and Fruits cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>612 ID=23867 Provider=PragmaticPlay Name=Juicy Fruits cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>613 ID=24528 Provider=NetEnt Name=Jumanji cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>614 ID=23116 Provider=NetEnt Name=Jungle Games cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>615 ID=23595 Provider=Microgaming Name=Jungle Jim Eldorado cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>616 ID=23383 Provider=Greentube Name=Jungle Queen cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>617 ID=23057 Provider=NetEnt Name=Jungle Spirit cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>618 ID=24200 Provider=Betsoft Name=Jungle Stripes	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>619 ID=23566 Provider=Microgaming Name=Jurassic World cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>620 ID=23338 Provider=Gaminator Name=Just Jewels classic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>621 ID=23186 Provider=Greentube Name=Just Jewels Deluxe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>622 ID=23472 Provider=PlayTech Name=Justice League cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>623 ID=24248 Provider=NoLimitCity Name=Karen Maneater cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>624 ID=23194 Provider=Greentube Name=Katana cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>625 ID=23629 Provider=Microgaming Name=Kathmandu cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>626 ID=23275 Provider=Igrosoft Name=Keks cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>627 ID=23529 Provider=Greentube Name=Keno plus 2Balls cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>628 ID=23528 Provider=EGT Name=Keno Universe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>629 ID=24529 Provider=NetEnt Name=King of 3 Kingdoms cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>630 ID=23548 Provider=Greentube Name=King of Cards cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>631 ID=23333 Provider=Gaminator Name=King of Cards classic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>632 ID=23618 Provider=Microgaming Name=King of Cash cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>633 ID=23505 Provider=NetEnt Name=King of Slots cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>634 ID=23622 Provider=Microgaming Name=King Tusk cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>635 ID=23300 Provider=IGT Name=Kitty Glitter cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>636 ID=23585 Provider=Merkur Name=Knights Life cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>637 ID=23042 Provider=NetEnt Name=Koi Princess cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>638 ID=23982 Provider=Amatic Name=La Gran Aventura	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>639 ID=24483 Provider=Microgaming Name=Ladies Nite cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>640 ID=23617 Provider=Microgaming Name=Lady in Red cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>641 ID=23238 Provider=Amatic Name=Lady Joker cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>642 ID=24300 Provider=PlaysonDirect Name=Legend of Cleopatra cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>643 ID=23220 Provider=Greentube Name=Leonardo's Code cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>644 ID=23724 Provider=QuickSpin Name=Leprechaun Hills cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>645 ID=23597 Provider=Microgaming Name=Life of Riches cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>646 ID=23222 Provider=Greentube Name=Lightning Wild cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>647 ID=23124 Provider=NetEnt Name=Lights cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>648 ID=23030 Provider=NetEnt Name=Lights touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>649 ID=23602 Provider=Microgaming Name=Loaded cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>650 ID=24530 Provider=NetEnt Name=Long Pao cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>651 ID=24434 Provider=Booongo Name=Lord Fortune 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>652 ID=23187 Provider=Greentube Name=Lord of the Ocean Deluxe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>653 ID=23125 Provider=NetEnt Name=Lost Island cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>654 ID=24531 Provider=NetEnt Name=Lost Relics cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>655 ID=23428 Provider=Wazdan Name=Lost Treasure cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>656 ID=24435 Provider=Booongo Name=Lotus Charm cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>657 ID=24257 Provider=Konami Name=Lotus Land cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>658 ID=23229 Provider=Amatic Name=Lovely Lady cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>659 ID=23892 Provider=PragmaticPlay Name=Luck, Grace &amp; Charm cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>660 ID=23487 Provider=Apollo Name=Lucky 81 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>661 ID=23327 Provider=Aristocrat Name=Lucky 88 HTML cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>662 ID=23106 Provider=NetEnt Name=Lucky Angler cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>663 ID=23029 Provider=NetEnt Name=Lucky Angler touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>664 ID=23261 Provider=Amatic Name=Lucky Bells cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>665 ID=23228 Provider=Amatic Name=Lucky Coin cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>666 ID=24111 Provider=Aristocrat Name=Lucky Count cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>667 ID=23865 Provider=PragmaticPlay Name=Lucky Dragons cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>668 ID=24484 Provider=Microgaming Name=Lucky Firecracker cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>669 ID=23440 Provider=Wazdan Name=Lucky Fortune cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>670 ID=23278 Provider=Igrosoft Name=Lucky Haunter cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>671 ID=23968 Provider=Amatic Name=Lucky Joker 20	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>672 ID=23969 Provider=Amatic Name=Lucky Joker 40	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>673 ID=23967 Provider=Amatic Name=Lucky Joker 5	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>674 ID=23604 Provider=Microgaming Name=Lucky Koi cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>675 ID=23379 Provider=Greentube Name=Lucky Lady`s Charm 6 Deluxe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>676 ID=23188 Provider=Greentube Name=Lucky Lady`s Charm Deluxe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>677 ID=23334 Provider=Gaminator Name=Lucky Ladys Charm classic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>678 ID=24485 Provider=Microgaming Name=Lucky Leprechaun cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>679 ID=23567 Provider=Microgaming Name=Lucky Little Gods cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>680 ID=23848 Provider=PragmaticPlay Name=Lucky New Year cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>681 ID=23464 Provider=Wazdan Name=Lucky Queen cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>682 ID=23388 Provider=Greentube Name=Lucky Rose cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>683 ID=24301 Provider=PlaysonDirect Name=Lucky Staxx: 40 lines cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>684 ID=23605 Provider=Microgaming Name=Lucky Twins cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>685 ID=24436 Provider=Booongo Name=Lucky Xmas cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>686 ID=23983 Provider=Amatic Name=Lucky Zodiac	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>687 ID=23776 Provider=PushGaming Name=Mad Cars cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>688 ID=23519 Provider=Apollo Name=Mad Mechanic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>689 ID=24209 Provider=Greentube Name=Magic 27 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>690 ID=23355 Provider=Greentube Name=Magic 81 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>691 ID=24437 Provider=Booongo Name=Magic Apple cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>692 ID=24438 Provider=Booongo Name=Magic Ball Multichance cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>693 ID=23422 Provider=Wazdan Name=Magic Fruit 4 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>694 ID=23463 Provider=Wazdan Name=Magic Fruits cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>695 ID=23429 Provider=Wazdan Name=Magic Fruits 27 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>696 ID=23430 Provider=Wazdan Name=Magic Fruits 81 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>697 ID=23431 Provider=Wazdan Name=Magic Hot cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>698 ID=23423 Provider=Wazdan Name=Magic Hot 4 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>699 ID=23230 Provider=Amatic Name=Magic Idol cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>700 ID=23990 Provider=Apollo Name=Magic Lady	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>701 ID=23569 Provider=Merkur Name=Magic Mirror deluxe II cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>702 ID=23348 Provider=Gaminator Name=Magic Money cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>703 ID=23414 Provider=Wazdan Name=Magic of the Ring cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>704 ID=23760 Provider=Wazdan Name=Magic of the Ring Deluxe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>705 ID=23262 Provider=Amatic Name=Magic Owl cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>706 ID=23123 Provider=NetEnt Name=Magic Portals cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>707 ID=23026 Provider=NetEnt Name=Magic Portals touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>708 ID=23370 Provider=Greentube Name=Magic Princess cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>709 ID=23952 Provider=Amatic Name=Magic Scatter	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>710 ID=24204 Provider=Betsoft Name=Magic Shoppe	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>711 ID=23442 Provider=Wazdan Name=Magic Target cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>712 ID=23441 Provider=Wazdan Name=Magic Target Deluxe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>713 ID=23705 Provider=EGT Name=Majestic Forest cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>714 ID=23473 Provider=PlayTech Name=Man of Steel cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>715 ID=23349 Provider=Gaminator Name=Marco Polo cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>716 ID=23301 Provider=IGT Name=Masques of San Marco cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>717 ID=23851 Provider=PragmaticPlay Name=Master Joker cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>718 ID=23155 Provider=NetEnt Name=Master of Mystery cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>719 ID=23365 Provider=Greentube Name=Mayan Moons cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>720 ID=23616 Provider=Microgaming Name=Mayan Princess cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>721 ID=23302 Provider=IGT Name=Mayan Riches cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>722 ID=23018 Provider=QuickSpin Name=Mayana cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>723 ID=24302 Provider=PlaysonDirect Name=Mega Burning Wins: 27 ways cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>724 ID=23219 Provider=Greentube Name=Mega Joker cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>725 ID=23984 Provider=Amatic Name=Mega Shark	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>726 ID=24249 Provider=NoLimitCity Name=Mental cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>727 ID=23241 Provider=Amatic Name=Mermaid's Gold cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>728 ID=23599 Provider=Microgaming Name=Mermaids Millions cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>729 ID=23371 Provider=Greentube Name=Mermaid's Pearl cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>730 ID=23263 Provider=Amatic Name=Merry Fruits cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>731 ID=23761 Provider=Wazdan Name=Miami Beach cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>732 ID=23494 Provider=Apollo Name=Midnight Fruits 81 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>733 ID=23019 Provider=QuickSpin Name=Mighty Arthur cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>734 ID=23894 Provider=PragmaticPlay Name=Mighty Kong cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>735 ID=23328 Provider=Aristocrat Name=Miss Kitty HTML cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>736 ID=23303 Provider=IGT Name=Miss Red cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>737 ID=24571 Provider=PragmaticPlay Name=Mochimon cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>738 ID=23847 Provider=PragmaticPlay Name=Money Mouse cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>739 ID=24439 Provider=Booongo Name=Monkey Money cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>740 ID=23850 Provider=PragmaticPlay Name=Monkey Warrior cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>741 ID=23630 Provider=Microgaming Name=Monster Wheels cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>742 ID=24108 Provider=Aristocrat Name=Moon Festival	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>743 ID=23411 Provider=NetEnt Name=Motörhead cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>744 ID=23693 Provider=Microgaming Name=Mount Olympus cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>745 ID=23733 Provider=QuickSpin Name=Mountain King cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>746 ID=24232 Provider=Kajot Name=Multi Vegas 81 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>747 ID=23586 Provider=Merkur Name=Multifruits cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>748 ID=24486 Provider=Microgaming Name=Munchkins cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>749 ID=23112 Provider=NetEnt Name=Muse cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>750 ID=23887 Provider=PragmaticPlay Name=Mustang Gold cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>751 ID=23897 Provider=PragmaticPlay Name=Mysterious cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>752 ID=23073 Provider=NetEnt Name=Mystery at the Mansion cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>753 ID=23449 Provider=Wazdan Name=Mystery Jack cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>754 ID=23489 Provider=Apollo Name=Mystery Joker II cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>755 ID=23771 Provider=PushGaming Name=Mystery Museum cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>756 ID=23205 Provider=Greentube Name=Mystic Secrets cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>757 ID=23100 Provider=NetEnt Name=Mythic Maiden cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>758 ID=23034 Provider=NetEnt Name=Mythic Maiden touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>759 ID=24532 Provider=NetEnt Name=Narcos cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>760 ID=24233 Provider=Kajot Name=Neon Fruits cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>761 ID=23038 Provider=NetEnt Name=Neon Staxx cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>762 ID=23443 Provider=Wazdan Name=Night Club 81 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>763 ID=24234 Provider=Kajot Name=Nine Stars cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>764 ID=23685 Provider=Microgaming Name=Ninja Magic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>765 ID=23400 Provider=Greentube Name=Ninja Path cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>766 ID=23304 Provider=IGT Name=Noahs Ark cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>767 ID=23734 Provider=QuickSpin Name=Northern Sky cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>768 ID=23158 Provider=NetEnt Name=Nrvna cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>769 ID=23082 Provider=NetEnt Name=Nrvna touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>770 ID=23496 Provider=Greentube Name=Ocean Tale cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>771 ID=24533 Provider=NetEnt Name=Ocean's Treasure cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>772 ID=23559 Provider=Microgaming Name=Oink Country Love cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>773 ID=23985 Provider=Amatic Name=Oktober Fest	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>774 ID=23666 Provider=Microgaming Name=Old King Cole cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>775 ID=24440 Provider=Booongo Name=Olympian Gods cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>776 ID=23706 Provider=EGT Name=Olympus Glory cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>777 ID=23189 Provider=Greentube Name=Orca cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>778 ID=23659 Provider=Microgaming Name=Orion cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>779 ID=24534 Provider=NetEnt Name=Ozzy Osbourne cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>780 ID=23072 Provider=NetEnt Name=Pacific Attack! cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>781 ID=23306 Provider=IGT Name=Pamplona cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>782 ID=23490 Provider=Apollo Name=Pandora cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>783 ID=23069 Provider=NetEnt Name=Pandora`s Box cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>784 ID=24459 Provider=CQGaming Name=Paradise cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>785 ID=24487 Provider=Microgaming Name=Party Island cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>786 ID=23957 Provider=Amatic Name=Party Night	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>787 ID=23264 Provider=Amatic Name=Party Time cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>788 ID=24441 Provider=Booongo Name=Patrick's Pub cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>789 ID=24107 Provider=Aristocrat Name=Pelican Pete	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>790 ID=23389 Provider=Greentube Name=Perchta cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>791 ID=24535 Provider=NetEnt Name=Phantom of the Opera cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>792 ID=23390 Provider=Greentube Name=Pharaoh`s Night cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>793 ID=23362 Provider=Greentube Name=Pharaoh`s Ring cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>794 ID=23204 Provider=Greentube Name=Pharaoh`s Tomb cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>795 ID=23335 Provider=Gaminator Name=Pharaons Gold 2 classic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>796 ID=24303 Provider=PlaysonDirect Name=Phoenix Fire cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>797 ID=23017 Provider=QuickSpin Name=Phoenix Sun cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>798 ID=23735 Provider=QuickSpin Name=Pied Piper cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>799 ID=23094 Provider=NetEnt Name=Piggy Riches cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>800 ID=23025 Provider=NetEnt Name=Piggy Riches touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>801 ID=23270 Provider=Igrosoft Name=Pirate cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>802 ID=23285 Provider=Igrosoft Name=Pirate 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>803 ID=24536 Provider=NetEnt Name=Pirate From The East cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>804 ID=23886 Provider=PragmaticPlay Name=Pirate Gold Deluxe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>805 ID=23736 Provider=QuickSpin Name=Pirates Charm cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>806 ID=23615 Provider=Microgaming Name=Pistoleras cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>807 ID=23405 Provider=NetEnt Name=Planet of the Apes cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>808 ID=23190 Provider=Greentube Name=Plenty on Twenty cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>809 ID=24235 Provider=Kajot Name=Poly Diamonds cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>810 ID=24119 Provider=Aristocrat Name=Pompeii cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>811 ID=24211 Provider=Greentube Name=PowerStars cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>812 ID=23537 Provider=Microgaming Name=Pretty Kitty cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>813 ID=24201 Provider=Betsoft Name=Primal Hunt cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>814 ID=23307 Provider=IGT Name=Prowling Panther cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>815 ID=24236 Provider=Kajot Name=Puppet Show cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>816 ID=23043 Provider=NetEnt Name=Pyramid cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>817 ID=24572 Provider=PragmaticPlay Name=Pyramid Bonanza cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>818 ID=23785 Provider=PragmaticPlay Name=Pyramid King cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>819 ID=23380 Provider=Greentube Name=Queen Cleopatra cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>820 ID=23340 Provider=Gaminator Name=Queen of Hearts classic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>821 ID=23217 Provider=Greentube Name=Queen of Hearts Deluxe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>822 ID=24109 Provider=Aristocrat Name=Queen of the Nile cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>823 ID=23325 Provider=Aristocrat Name=Queen of the Nile 2 HTML cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>824 ID=23372 Provider=Greentube Name=Quest for Gold cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>825 ID=23690 Provider=Microgaming Name=Rabbit in the Hat cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>826 ID=24537 Provider=NetEnt Name=Rage of the Seas cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>827 ID=23587 Provider=Merkur Name=Railroad cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>828 ID=23373 Provider=Greentube Name=Ramses II cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>829 ID=23772 Provider=PushGaming Name=Razor Shark cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>830 ID=23011 Provider=QuickSpin Name=Razortooth cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>831 ID=23329 Provider=Aristocrat Name=Red Baron HTML cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>832 ID=23265 Provider=Amatic Name=Red Chilli cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>833 ID=24304 Provider=PlaysonDirect Name=Red Chilli Wins cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>834 ID=23191 Provider=Greentube Name=Red Lady cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>835 ID=23502 Provider=Greentube Name=Redhot 20 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>836 ID=23500 Provider=Greentube Name=Redhot 40 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>837 ID=23503 Provider=Greentube Name=Redhot Burning cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>838 ID=23495 Provider=Greentube Name=Redhot Fruits cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>839 ID=23385 Provider=Greentube Name=Redline Racer cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>840 ID=24538 Provider=NetEnt Name=Reef Raider cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>841 ID=23143 Provider=NetEnt Name=Reel Rush cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>842 ID=24539 Provider=NetEnt Name=Reel Rush 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>843 ID=23062 Provider=NetEnt Name=Reel Rush html cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>844 ID=23506 Provider=NetEnt Name=Reel Steal cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>845 ID=24489 Provider=Microgaming Name=Reel Thunder cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>846 ID=23879 Provider=PragmaticPlay Name=Release the Kraken cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>847 ID=23279 Provider=Igrosoft Name=Resident cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>848 ID=23202 Provider=Greentube Name=Rex cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>849 ID=23350 Provider=Gaminator Name=Riches of India cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>850 ID=24266 Provider=PlaynGo Name=Riches of Ra cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>851 ID=24237 Provider=Kajot Name=Ring of Fire XL cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>852 ID=24305 Provider=PlaysonDirect Name=Rise of Egypt cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>853 ID=24540 Provider=NetEnt Name=Rise of Maya cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>854 ID=24268 Provider=PlaynGo Name=Rise of Merlin cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>855 ID=23716 Provider=EGT Name=Rise of Ra cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>856 ID=23588 Provider=Merkur Name=Rising liner cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>857 ID=23356 Provider=Greentube Name=River Queen cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>858 ID=23201 Provider=Greentube Name=Roaring Forties cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>859 ID=23110 Provider=NetEnt Name=Robin Hood cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>860 ID=24541 Provider=NetEnt Name=Robin Hood: Shifting Riches cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>861 ID=23692 Provider=Microgaming Name=Robo Jack cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>862 ID=23280 Provider=Igrosoft Name=Rock Climber cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>863 ID=24225 Provider=Hacksaw Name=Rocket Reels cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>864 ID=24213 Provider=Greentube Name=Roman Colloseum cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>865 ID=24258 Provider=Konami Name=Roman Tribune cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>866 ID=24306 Provider=PlaysonDirect Name=Rome: Caesar's Glory cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>867 ID=23593 Provider=Amatic Name=Roulette Royal cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>868 ID=23212 Provider=NetEnt Name=Roulette touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>869 ID=23374 Provider=Greentube Name=Royal Dynasty cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>870 ID=23707 Provider=EGT Name=Royal Secrets cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>871 ID=23240 Provider=Amatic Name=Royal Unicorn cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>872 ID=23221 Provider=Greentube Name=Rumpel Wildspins cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>873 ID=24307 Provider=PlaysonDirect Name=Sakura Dragon cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>874 ID=24543 Provider=NetEnt Name=Santa vs Rudolf cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>875 ID=23614 Provider=Microgaming Name=Santas Wild Ride cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>876 ID=23687 Provider=Microgaming Name=Savanna King cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>877 ID=24442 Provider=Booongo Name=Scarab Riches cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>878 ID=24443 Provider=Booongo Name=Scarab Temple cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>879 ID=23114 Provider=NetEnt Name=Scarface cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>880 ID=23568 Provider=Microgaming Name=Scrooge cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>881 ID=23409 Provider=NetEnt Name=Scruffy Duck cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>882 ID=23551 Provider=NetEnt Name=Scudamore cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>883 ID=23214 Provider=Greentube Name=Sea Sirens cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>884 ID=23012 Provider=QuickSpin Name=Second Strike cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>885 ID=23117 Provider=NetEnt Name=Secret Code cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>886 ID=23375 Provider=Greentube Name=Secret Elixir cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>887 ID=24444 Provider=Booongo Name=Secret of Nefertiti 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>888 ID=24259 Provider=Konami Name=Secret of the Mermaid cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>889 ID=24544 Provider=NetEnt Name=Secret of the Stones cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>890 ID=23054 Provider=NetEnt Name=Secrets of Atlantis cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>891 ID=23056 Provider=NetEnt Name=Secrets of Christmas cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>892 ID=24238 Provider=Kajot Name=Secrets of Egypt cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>893 ID=23065 Provider=NetEnt Name=Secrets of Horus cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>894 ID=23113 Provider=NetEnt Name=Secrets of Stones cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>895 ID=23359 Provider=Greentube Name=Serengeti Heat cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>896 ID=24545 Provider=NetEnt Name=Serengeti Kings cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>897 ID=23667 Provider=Microgaming Name=Serenity cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>898 ID=23013 Provider=QuickSpin Name=Sevens High cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>899 ID=23406 Provider=NetEnt Name=Shangrila Cluster Pays cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>900 ID=23342 Provider=Gaminator Name=Sharky classic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>901 ID=24445 Provider=Booongo Name=Shen Long Mi Bao cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>902 ID=23708 Provider=EGT Name=Shining Crown cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>903 ID=23354 Provider=Greentube Name=Shooting Stars cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>904 ID=23376 Provider=Greentube Name=Show Girls cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>905 ID=23308 Provider=IGT Name=Siberian Storm cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>906 ID=23148 Provider=NetEnt Name=Silent Run cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>907 ID=23613 Provider=Microgaming Name=Silver Fang cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>908 ID=24546 Provider=NetEnt Name=Silverback Gold cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>909 ID=24239 Provider=Kajot Name=Simply the best 81 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>910 ID=23118 Provider=NetEnt Name=Simsalabim cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>911 ID=24446 Provider=Booongo Name=Singles Day cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>912 ID=23536 Provider=Microgaming Name=Six Acrobats cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>913 ID=23207 Provider=Greentube Name=Sizzling 6 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>914 ID=23434 Provider=Wazdan Name=Sizzling 777 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>915 ID=23198 Provider=Greentube Name=Sizzling Gems cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>916 ID=23363 Provider=Greentube Name=Sizzling Hot 6 Extra Gold cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>917 ID=23339 Provider=Gaminator Name=Sizzling Hot classic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>918 ID=23200 Provider=Greentube Name=Sizzling Hot Deluxe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>919 ID=24220 Provider=Greentube Name=Sizzling Hot Quattro cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>920 ID=24447 Provider=Booongo Name=Sky Gems: 5 Wilds cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>921 ID=24282 Provider=PlaysonDirect Name=Sky Way cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>922 ID=23491 Provider=Apollo Name=Slot Birds cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>923 ID=23517 Provider=Apollo Name=Smiling Joker cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>924 ID=23115 Provider=NetEnt Name=South Park cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>925 ID=23150 Provider=NetEnt Name=South Park Reel Chaos cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>926 ID=23394 Provider=NetEnt Name=South Park Reel Chaos touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>927 ID=23075 Provider=NetEnt Name=South Park touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>928 ID=23147 Provider=NetEnt Name=Space Wars cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>929 ID=24547 Provider=NetEnt Name=Space Wars cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>930 ID=24548 Provider=NetEnt Name=Space Wars 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>931 ID=23039 Provider=NetEnt Name=Sparks cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>932 ID=23873 Provider=PragmaticPlay Name=Spartan King cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>933 ID=23553 Provider=NetEnt Name=Spellcast cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>934 ID=24470 Provider=IGT Name=Sphinx cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>935 ID=24471 Provider=IGT Name=Sphinx Wild cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>936 ID=23138 Provider=NetEnt Name=Spinata Grande cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>937 ID=23033 Provider=NetEnt Name=Spinata Grande touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>938 ID=23016 Provider=QuickSpin Name=Spinions Beach Party cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>939 ID=23377 Provider=Greentube Name=Spinning Stars cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>940 ID=24549 Provider=NetEnt Name=Spinsane cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>941 ID=24490 Provider=Microgaming Name=Spring Break cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>942 ID=23357 Provider=Greentube Name=Spring Queen cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>943 ID=24222 Provider=Hacksaw Name=Stack 'Em cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>944 ID=24448 Provider=Booongo Name=Star Gems cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>945 ID=23309 Provider=IGT Name=Star Trek cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>946 ID=23103 Provider=NetEnt Name=Starburst cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>947 ID=23032 Provider=NetEnt Name=Starburst touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>948 ID=24550 Provider=NetEnt Name=Starburst XXXtreme cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>949 ID=23619 Provider=Microgaming Name=Stardust cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>950 ID=24573 Provider=PragmaticPlay Name=Starlight Princess cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>951 ID=24240 Provider=Kajot Name=Stars cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>952 ID=23137 Provider=NetEnt Name=Steam Tower cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>953 ID=23077 Provider=NetEnt Name=Steam Tower touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>954 ID=23040 Provider=NetEnt Name=Stickers cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>955 ID=23020 Provider=QuickSpin Name=Sticky Bandits cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>956 ID=23384 Provider=Greentube Name=Stories of Infinity cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>957 ID=24551 Provider=NetEnt Name=Street Fighter II: The World Warrior Slot cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>958 ID=23549 Provider=NetEnt Name=Strolling Staxx cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>959 ID=23102 Provider=NetEnt Name=Subtopia cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>960 ID=23081 Provider=NetEnt Name=Subtopia touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>961 ID=23560 Provider=Microgaming Name=Sugar Parade cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>962 ID=24574 Provider=PragmaticPlay Name=Sugar Rush cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>963 ID=23310 Provider=IGT Name=Sumatran Storm cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>964 ID=23358 Provider=Greentube Name=Summer Queen cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>965 ID=24497 Provider=Microgaming Name=Summertime cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>966 ID=24102 Provider=Aristocrat Name=Sun And Moon	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>967 ID=24449 Provider=Booongo Name=Sun of Egypt cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>968 ID=24450 Provider=Booongo Name=Sun of Egypt 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>969 ID=24451 Provider=Booongo Name=Sun of Egypt 3 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>970 ID=23762 Provider=Wazdan Name=Sun of Fortune cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>971 ID=23621 Provider=Microgaming Name=Suntide cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>972 ID=24492 Provider=Microgaming Name=Supe It Up cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>973 ID=23589 Provider=Merkur Name=Super 7 Reels cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>974 ID=23154 Provider=NetEnt Name=Super Eighties cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>975 ID=23462 Provider=Wazdan Name=Super Hot cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>976 ID=24241 Provider=Kajot Name=Super Joker 40 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>977 ID=24452 Provider=Booongo Name=Super Rich God cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>978 ID=24453 Provider=Booongo Name=Supreme Fortune cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>979 ID=23711 Provider=EGT Name=Supreme Hot cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>980 ID=24493 Provider=Microgaming Name=Sure Win cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>981 ID=23283 Provider=Igrosoft Name=Sweet Life cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>982 ID=23271 Provider=Igrosoft Name=Sweet Life 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>983 ID=23218 Provider=Greentube Name=Sweet Sins cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>984 ID=24552 Provider=NetEnt Name=Sweety Honey Fruity cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>985 ID=23555 Provider=NetEnt Name=Swipe and Roll cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>986 ID=23669 Provider=Microgaming Name=Taboo spell cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>987 ID=24206 Provider=Betsoft Name=Take Olympus	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>988 ID=23737 Provider=QuickSpin Name=Tales of Doctor Dolittle cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>989 ID=23083 Provider=NetEnt Name=Tales of Krakow cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>990 ID=24494 Provider=Microgaming Name=Tally Ho cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>991 ID=23482 Provider=Microgaming Name=Tasty Street cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>992 ID=23554 Provider=NetEnt Name=Temple of Nudges cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>993 ID=23689 Provider=Microgaming Name=Terminator 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>994 ID=23448 Provider=Wazdan Name=Tetrimania cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>995 ID=23378 Provider=Greentube Name=The Alchemist cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>996 ID=24553 Provider=NetEnt Name=The Creature from the Black Lagoon cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>997 ID=23475 Provider=PlayTech Name=The Dark Knight cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>998 ID=23876 Provider=PragmaticPlay Name=The Dog House cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>999 ID=23596 Provider=Microgaming Name=the Finer Reels of Life cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1000 ID=23861 Provider=PragmaticPlay Name=The Hand of Midas cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1001 ID=23041 Provider=NetEnt Name=the Invisible Man cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1002 ID=23678 Provider=Microgaming Name=the Land of Lemuria cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1003 ID=23336 Provider=Gaminator Name=The Money Game classic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1004 ID=23631 Provider=Microgaming Name=the Phantom of the Opera cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1005 ID=24495 Provider=Microgaming Name=The Rat Pack cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1006 ID=23272 Provider=Greentube Name=The Real King cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1007 ID=24273 Provider=PlaynGo Name=The Sword and the Grail cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1008 ID=23888 Provider=PragmaticPlay Name=The Tweety House cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1009 ID=23600 Provider=Microgaming Name=the Twisted Circus cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1010 ID=24554 Provider=NetEnt Name=The Wish Master cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1011 ID=24555 Provider=NetEnt Name=the Wolf's Bane cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1012 ID=23050 Provider=NetEnt Name=Theme Park cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1013 ID=23107 Provider=NetEnt Name=Thief cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1014 ID=23493 Provider=Greentube Name=Thirteen cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1015 ID=23680 Provider=Microgaming Name=thr One of Egypt cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1016 ID=23351 Provider=Gaminator Name=Three! cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1017 ID=23064 Provider=NetEnt Name=ThrillSpin cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1018 ID=24454 Provider=Booongo Name=Thunder of Olympus cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1019 ID=23129 Provider=NetEnt Name=Thunderfist cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1020 ID=23561 Provider=Microgaming Name=Thunderstruck cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1021 ID=23562 Provider=Microgaming Name=Thunderstruck II cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1022 ID=24110 Provider=Aristocrat Name=Tiki Torch	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1023 ID=23610 Provider=Microgaming Name=Titans of the Sun: Heia cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1024 ID=23609 Provider=Microgaming Name=Titans of the Sun: Hyperion cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1025 ID=23612 Provider=Microgaming Name=Tomb Raider cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1026 ID=24250 Provider=NoLimitCity Name=Tombstone R.I.P cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1027 ID=23140 Provider=NetEnt Name=Tornado cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1028 ID=23074 Provider=NetEnt Name=Tornado touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1029 ID=24472 Provider=IGT Name=Treasures of The Pyramids cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1030 ID=23381 Provider=Greentube Name=Tres Amigos cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1031 ID=24473 Provider=IGT Name=Triple Diamond cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1032 ID=23764 Provider=Wazdan Name=Triple Star cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1033 ID=23845 Provider=PragmaticPlay Name=Triple Tigers cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1034 ID=23068 Provider=NetEnt Name=Trolls cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1035 ID=24242 Provider=Kajot Name=Turbo 27 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1036 ID=23520 Provider=Apollo Name=Turbo Slots cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1037 ID=23525 Provider=NetEnt Name=Turn Your Fortune cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1038 ID=23266 Provider=Amatic Name=Tweety Birds cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1039 ID=24556 Provider=NetEnt Name=Twin Happiness cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1040 ID=23135 Provider=NetEnt Name=Twin Spin cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1041 ID=24557 Provider=NetEnt Name=Twin Spin Deluxe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1042 ID=23022 Provider=NetEnt Name=Twin Spin touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1043 ID=23398 Provider=Greentube Name=Two Mayans cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1044 ID=23712 Provider=EGT Name=Ultimate Hot cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1045 ID=23590 Provider=Merkur Name=Ultra 7 Wild cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1046 ID=23849 Provider=PragmaticPlay Name=Ultra Hold and Spin cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1047 ID=23208 Provider=Greentube Name=Ultra Hot Deluxe cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1048 ID=23948 Provider=Amatic Name=Ultra Seven	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1049 ID=23444 Provider=Wazdan Name=Valhalla cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1050 ID=23986 Provider=Amatic Name=Vampires cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1051 ID=23591 Provider=Merkur Name=Vampires Night cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1052 ID=23311 Provider=IGT Name=Vegas Baby cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1053 ID=23461 Provider=Wazdan Name=Vegas Hot cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1054 ID=23447 Provider=Wazdan Name=Vegas Hot 81 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1055 ID=23713 Provider=EGT Name=Versailles Gold cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1056 ID=23101 Provider=NetEnt Name=Victorious cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1057 ID=24558 Provider=NetEnt Name=Victorious Max cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1058 ID=23393 Provider=NetEnt Name=Victorious touch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1059 ID=23063 Provider=NetEnt Name=Viking`s Treasure cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1060 ID=24243 Provider=Kajot Name=Vikings cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1061 ID=24457 Provider=Booongo Name=Vikings Winter cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1062 ID=23738 Provider=QuickSpin Name=Volcano Riches cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1063 ID=23071 Provider=NetEnt Name=Voodoo Vibes cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1064 ID=24244 Provider=Kajot Name=Wanted cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1065 ID=24221 Provider=Hacksaw Name=Wanted Dead or a Wild cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1066 ID=23053 Provider=NetEnt Name=Warlords - Crystal of Power cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1067 ID=23312 Provider=IGT Name=Water Dragons cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1068 ID=24260 Provider=Konami Name=Wealthy Monkey cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1069 ID=23445 Provider=Wazdan Name=Welcome to Hell 81 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1070 ID=24101 Provider=Aristocrat Name=Werewolf Wild	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1071 ID=23313 Provider=IGT Name=Western Belles cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1072 ID=24496 Provider=Microgaming Name=What a Hoot cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1073 ID=23157 Provider=NetEnt Name=When Pigs Fly cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1074 ID=24116 Provider=Aristocrat Name=Where's The Gold	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1075 ID=23466 Provider=PlayTech Name=White King cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1076 ID=24560 Provider=NetEnt Name=Who's the Bride cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1077 ID=23946 Provider=Amatic Name=Wild 7	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1078 ID=24458 Provider=Booongo Name=Wild 888 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1079 ID=23391 Provider=Greentube Name=Wild Adventure cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1080 ID=23481 Provider=Greentube Name=Wild at Heart cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1081 ID=23510 Provider=NetEnt Name=Wild Bazaar cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1082 ID=23739 Provider=QuickSpin Name=Wild Chase cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1083 ID=23267 Provider=Amatic Name=Wild Dragon cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1084 ID=23492 Provider=Apollo Name=Wild Fruits 27 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1085 ID=23765 Provider=Wazdan Name=Wild Girls cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1086 ID=23364 Provider=Greentube Name=Wild Horses cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1087 ID=23433 Provider=Wazdan Name=Wild Jack cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1088 ID=23432 Provider=Wazdan Name=Wild Jack 81 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1089 ID=23268 Provider=Amatic Name=Wild Respin cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1090 ID=23149 Provider=NetEnt Name=Wild Rockets cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1091 ID=24415 Provider=Amatic Name=Wild Shark Bonuy Buy cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1092 ID=24118 Provider=Aristocrat Name=Wild Splash	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1093 ID=23244 Provider=Amatic Name=Wild Stars cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1094 ID=23095 Provider=NetEnt Name=Wild Turkey cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1095 ID=24561 Provider=NetEnt Name=Wild Turkey cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1096 ID=24283 Provider=PlaysonDirect Name=Wild Warriors cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1097 ID=23061 Provider=NetEnt Name=Wild Water cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1098 ID=23875 Provider=PragmaticPlay Name=Wild Wild Riches cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1099 ID=23059 Provider=NetEnt Name=Wild Wild West cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1100 ID=23067 Provider=NetEnt Name=Wild Witches cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1101 ID=23314 Provider=IGT Name=Wild Wolf cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1102 ID=24562 Provider=NetEnt Name=Wild Worlds cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1103 ID=24563 Provider=NetEnt Name=Wilderland cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1104 ID=23512 Provider=NetEnt Name=Wildotron 3000 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1105 ID=23269 Provider=Amatic Name=Wils Shark cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1106 ID=24564 Provider=NetEnt Name=Wings of Riches cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1107 ID=23446 Provider=Wazdan Name=Wins &amp; Replay cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1108 ID=23740 Provider=QuickSpin Name=Wins of Fortune cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1109 ID=23134 Provider=NetEnt Name=Wish Master cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1110 ID=24565 Provider=NetEnt Name=Witchcraft Academy cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1111 ID=23714 Provider=EGT Name=Witches Charm cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1112 ID=23407 Provider=NetEnt Name=Wolf Cub cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1113 ID=23778 Provider=PragmaticPlay Name=Wolf Gold cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1114 ID=23239 Provider=Amatic Name=Wolf Moon cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1115 ID=23315 Provider=IGT Name=Wolf Run cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1116 ID=24261 Provider=Konami Name=Wonder Rose cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1117 ID=24216 Provider=Greentube Name=Wonderworld cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1118 ID=23121 Provider=NetEnt Name=Wonky Wabbits cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1119 ID=23592 Provider=Merkur Name=Xtra 10 Liner cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1120 ID=23206 Provider=Greentube Name=Xtra Hot cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1121 ID=23344 Provider=Gaminator Name=Xtra Hot classic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1122 ID=23715 Provider=EGT Name=Zodiac Wheel cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1123 ID=23902 Provider=Spadegaming Name=Zombie Party	 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1124 ID=23111 Provider=NetEnt Name=Zombies cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1125 ID=24117 Provider=Aristocrat Name=Zorro cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
   </si>
 </sst>
 </file>
@@ -1962,9 +5730,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A153"/>
+  <dimension ref="A1:A128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1975,767 +5743,642 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>357</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>644</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>362</v>
+        <v>645</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>646</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>648</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>649</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>368</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>652</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>370</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>371</v>
+        <v>654</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>372</v>
+        <v>655</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>656</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>657</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>658</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>376</v>
+        <v>659</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>377</v>
+        <v>660</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>378</v>
+        <v>661</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>379</v>
+        <v>662</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>380</v>
+        <v>663</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>381</v>
+        <v>664</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>382</v>
+        <v>665</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>383</v>
+        <v>666</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>384</v>
+        <v>667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>385</v>
+        <v>668</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>386</v>
+        <v>669</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>387</v>
+        <v>670</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>388</v>
+        <v>671</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>389</v>
+        <v>672</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>390</v>
+        <v>673</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>391</v>
+        <v>674</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>392</v>
+        <v>675</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>393</v>
+        <v>676</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>394</v>
+        <v>677</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>395</v>
+        <v>678</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>396</v>
+        <v>679</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>397</v>
+        <v>680</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>398</v>
+        <v>681</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>399</v>
+        <v>682</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>400</v>
+        <v>683</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>401</v>
+        <v>684</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>402</v>
+        <v>685</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>403</v>
+        <v>686</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>404</v>
+        <v>687</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>405</v>
+        <v>688</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>406</v>
+        <v>689</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>407</v>
+        <v>690</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>408</v>
+        <v>691</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>409</v>
+        <v>692</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>410</v>
+        <v>693</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>411</v>
+        <v>694</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>412</v>
+        <v>695</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>413</v>
+        <v>696</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>414</v>
+        <v>697</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>415</v>
+        <v>698</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>416</v>
+        <v>699</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>417</v>
+        <v>700</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>418</v>
+        <v>701</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>419</v>
+        <v>702</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>420</v>
+        <v>703</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>421</v>
+        <v>704</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>422</v>
+        <v>705</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>423</v>
+        <v>706</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>424</v>
+        <v>707</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>425</v>
+        <v>708</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>426</v>
+        <v>709</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>427</v>
+        <v>710</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>428</v>
+        <v>711</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>429</v>
+        <v>712</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>430</v>
+        <v>713</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>431</v>
+        <v>714</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>432</v>
+        <v>715</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>433</v>
+        <v>716</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>434</v>
+        <v>717</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>435</v>
+        <v>718</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>436</v>
+        <v>719</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>437</v>
+        <v>720</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>438</v>
+        <v>721</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>439</v>
+        <v>722</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>440</v>
+        <v>723</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>441</v>
+        <v>724</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>442</v>
+        <v>725</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>443</v>
+        <v>726</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>444</v>
+        <v>727</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>445</v>
+        <v>728</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>446</v>
+        <v>729</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>447</v>
+        <v>730</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>448</v>
+        <v>731</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>449</v>
+        <v>732</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>450</v>
+        <v>733</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>451</v>
+        <v>734</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>452</v>
+        <v>735</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>453</v>
+        <v>736</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>454</v>
+        <v>737</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>455</v>
+        <v>738</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>456</v>
+        <v>739</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>457</v>
+        <v>740</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>458</v>
+        <v>741</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>459</v>
+        <v>742</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>460</v>
+        <v>743</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>461</v>
+        <v>744</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>462</v>
+        <v>745</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>463</v>
+        <v>746</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>464</v>
+        <v>747</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>465</v>
+        <v>748</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>466</v>
+        <v>749</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>467</v>
+        <v>750</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>468</v>
+        <v>751</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>469</v>
+        <v>752</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>470</v>
+        <v>753</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>471</v>
+        <v>754</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>472</v>
+        <v>755</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>473</v>
+        <v>756</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>474</v>
+        <v>757</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>475</v>
+        <v>758</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>476</v>
+        <v>759</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>477</v>
+        <v>760</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>478</v>
+        <v>761</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>479</v>
+        <v>762</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>480</v>
+        <v>763</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>481</v>
+        <v>764</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>482</v>
+        <v>765</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>483</v>
+        <v>766</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>509</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>
@@ -2743,48 +6386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="195.3125"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="195.3125"/>
-  </cols>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:A125"/>
   <sheetViews>
@@ -2807,617 +6409,684 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>512</v>
+        <v>932</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>513</v>
+        <v>955</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>514</v>
+        <v>970</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>515</v>
+        <v>983</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>516</v>
+        <v>989</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>517</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>518</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>519</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>520</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>521</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>522</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>523</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>524</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>525</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>526</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>527</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>528</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>529</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>530</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>531</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>532</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>533</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>534</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>535</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>536</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>537</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>538</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>539</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>540</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>541</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>542</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>543</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>544</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>545</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>546</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>547</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>548</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>549</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>550</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>551</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>552</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>553</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>554</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>555</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>556</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>557</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>558</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>559</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>560</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>561</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>562</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>563</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>564</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>565</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>566</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>567</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>568</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>569</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>570</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>571</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>572</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>573</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>574</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>575</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>576</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>577</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>578</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>579</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>580</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>581</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>582</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>583</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>584</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>585</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>586</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>587</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>588</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>589</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>590</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>591</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>592</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>593</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>594</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>595</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>596</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>597</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>598</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>599</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>600</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>601</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>602</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>603</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>604</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>605</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>606</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>607</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>608</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>609</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>610</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>611</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>612</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>613</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>614</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>615</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>616</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>617</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>618</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>619</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>620</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>621</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>622</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>623</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>624</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>625</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>626</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>627</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>628</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>629</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>630</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>631</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>632</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>633</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>634</v>
+        <v>1889</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="195.3125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="195.3125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>639</v>
       </c>
     </row>
   </sheetData>
